--- a/results_analysis/results_cov_D500.xlsx
+++ b/results_analysis/results_cov_D500.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/826e759ec9f8b5cf/研一上学期/最优化理论/final/optimization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/826e759ec9f8b5cf/研一上学期/最优化理论/final/optimization/results_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="394" documentId="11_AD4DA82427541F7ACA7EB83EE8CB121C6AE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86A990A7-25A2-4C52-B9EB-3D7B1B1006D8}"/>
+  <xr:revisionPtr revIDLastSave="403" documentId="11_AD4DA82427541F7ACA7EB83EE8CB121C6AE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DC522D7-24E2-4652-901C-4E52ECF8E4C9}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cov_D_500 json ctr_vr" sheetId="31" r:id="rId1"/>
@@ -28,6 +28,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -241,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -251,10 +254,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1033,7 +1032,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dPt>
-            <c:idx val="3"/>
+            <c:idx val="4"/>
             <c:marker>
               <c:symbol val="none"/>
             </c:marker>
@@ -1215,35 +1214,38 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'f-f'!$D$3:$D$11</c:f>
+              <c:f>'f-f'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0.17972600000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.8991251899999999</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1.4361893699999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1.21285054</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1.0214122999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.97237119999999999</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.82812536999999997</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.80676844000000003</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>1.5274900000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>3.5856000000000001E-4</c:v>
                 </c:pt>
               </c:numCache>
@@ -1446,68 +1448,71 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'f-f'!$E$3:$E$203</c:f>
+              <c:f>'f-f'!$E$2:$E$203</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="201"/>
+                <c:ptCount val="202"/>
                 <c:pt idx="0">
+                  <c:v>0.17972600000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>36.051149270000003</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>111.3469355</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>57.56943587</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>31.885602070000001</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>16.638316750000001</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>7.8009505800000003</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>3.72776263</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>1.94190057</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>1.66159536</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>1.46154297</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1.23134587</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>1.00872899</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>0.98496260000000002</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>0.82329554000000005</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>0.79760434999999996</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>1.60753E-3</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>1.1167499999999999E-3</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>1.2852899999999999E-3</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>1.8649999999999999E-5</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>1.115E-5</c:v>
                 </c:pt>
               </c:numCache>
@@ -7520,13 +7525,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>611980</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>109537</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>3376</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7564,10 +7569,10 @@
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>445294</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>553894</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>46237</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7593,6 +7598,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13510,7 +13519,7 @@
       <c r="C242">
         <v>730.41629999999998</v>
       </c>
-      <c r="E242" s="9">
+      <c r="E242" s="4">
         <v>1.8991251899999999</v>
       </c>
     </row>
@@ -13524,7 +13533,7 @@
       <c r="C243">
         <v>733.50840000000005</v>
       </c>
-      <c r="E243" s="9">
+      <c r="E243" s="4">
         <v>1.4361893699999999</v>
       </c>
     </row>
@@ -13538,7 +13547,7 @@
       <c r="C244">
         <v>736.80579999999998</v>
       </c>
-      <c r="E244" s="9">
+      <c r="E244" s="4">
         <v>1.21285054</v>
       </c>
     </row>
@@ -13552,32 +13561,32 @@
       <c r="C245">
         <v>740.00419999999997</v>
       </c>
-      <c r="E245" s="11">
+      <c r="E245" s="7">
         <v>1.0214122999999999</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="E246" s="9">
+      <c r="E246" s="4">
         <v>0.97237119999999999</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="E247" s="11">
+      <c r="E247" s="7">
         <v>0.82812536999999997</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="E248" s="9">
+      <c r="E248" s="4">
         <v>0.80676844000000003</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="E249" s="11">
+      <c r="E249" s="7">
         <v>1.5274900000000001E-3</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="E250" s="11">
+      <c r="E250" s="7">
         <v>3.5856000000000001E-4</v>
       </c>
     </row>
@@ -14764,8 +14773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H203"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -14820,16 +14829,16 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="4">
         <v>5.0059729999999997E-2</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="4">
         <v>4.9100900000000003E-2</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="4">
         <v>1.8991251899999999</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="4">
         <v>36.051149270000003</v>
       </c>
       <c r="F3" s="4"/>
@@ -14841,16 +14850,16 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="7">
         <v>3.1883149999999999E-2</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="7">
         <v>3.2236420000000002E-2</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="4">
         <v>1.4361893699999999</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="7">
         <v>111.3469355</v>
       </c>
       <c r="F4" s="7"/>
@@ -14859,16 +14868,16 @@
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="4">
         <v>2.3739030000000001E-2</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="4">
         <v>2.2542110000000001E-2</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="4">
         <v>1.21285054</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="7">
         <v>57.56943587</v>
       </c>
       <c r="F5" s="4"/>
@@ -14877,16 +14886,16 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="7">
         <v>1.8239459999999999E-2</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="7">
         <v>1.7092909999999999E-2</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="7">
         <v>1.0214122999999999</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="7">
         <v>31.885602070000001</v>
       </c>
       <c r="F6" s="7"/>
@@ -14895,16 +14904,16 @@
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="4">
         <v>1.418766E-2</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="4">
         <v>1.334255E-2</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="4">
         <v>0.97237119999999999</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="7">
         <v>16.638316750000001</v>
       </c>
       <c r="F7" s="4"/>
@@ -14913,16 +14922,16 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="7">
         <v>1.1755359999999999E-2</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="7">
         <v>1.075836E-2</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="7">
         <v>0.82812536999999997</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="7">
         <v>7.8009505800000003</v>
       </c>
       <c r="F8" s="7"/>
@@ -14931,16 +14940,16 @@
       <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="4">
         <v>9.7081700000000003E-3</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="4">
         <v>8.7906600000000005E-3</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="4">
         <v>0.80676844000000003</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="7">
         <v>3.72776263</v>
       </c>
       <c r="F9" s="4"/>
@@ -14949,16 +14958,16 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="7">
         <v>8.2985200000000002E-3</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="7">
         <v>7.4937399999999996E-3</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="7">
         <v>1.5274900000000001E-3</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="4">
         <v>1.94190057</v>
       </c>
       <c r="F10" s="7"/>
@@ -14967,16 +14976,16 @@
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="4">
         <v>7.1771999999999999E-3</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="4">
         <v>6.3484400000000003E-3</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="7">
         <v>3.5856000000000001E-4</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="7">
         <v>1.66159536</v>
       </c>
       <c r="F11" s="4"/>
@@ -14985,14 +14994,14 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="7">
         <v>6.3868900000000001E-3</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="7">
         <v>5.6237199999999996E-3</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="9">
+      <c r="E12" s="4">
         <v>1.46154297</v>
       </c>
       <c r="F12" s="7"/>
@@ -15001,14 +15010,14 @@
       <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="4">
         <v>5.6466099999999998E-3</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="4">
         <v>4.8555899999999999E-3</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="9">
+      <c r="E13" s="4">
         <v>1.23134587</v>
       </c>
       <c r="F13" s="4"/>
@@ -15017,14 +15026,14 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="7">
         <v>5.1401900000000002E-3</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="7">
         <v>4.3051900000000004E-3</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="11">
+      <c r="E14" s="7">
         <v>1.00872899</v>
       </c>
       <c r="F14" s="7"/>
@@ -15033,14 +15042,14 @@
       <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="4">
         <v>4.8675899999999998E-3</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="4">
         <v>3.8777199999999999E-3</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="9">
+      <c r="E15" s="4">
         <v>0.98496260000000002</v>
       </c>
       <c r="F15" s="4"/>
@@ -15049,14 +15058,14 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="7">
         <v>4.0829300000000002E-3</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="7">
         <v>3.5464200000000002E-3</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="11">
+      <c r="E16" s="7">
         <v>0.82329554000000005</v>
       </c>
       <c r="F16" s="7"/>
@@ -15065,14 +15074,14 @@
       <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="4">
         <v>4.4474800000000002E-3</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="4">
         <v>3.2104400000000002E-3</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="9">
+      <c r="E17" s="4">
         <v>0.79760434999999996</v>
       </c>
       <c r="F17" s="4"/>
@@ -15081,14 +15090,14 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="7">
         <v>3.5114399999999998E-3</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="7">
         <v>2.9560300000000001E-3</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="11">
+      <c r="E18" s="7">
         <v>1.60753E-3</v>
       </c>
       <c r="F18" s="7"/>
@@ -15097,14 +15106,14 @@
       <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="4">
         <v>3.2627699999999999E-3</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="4">
         <v>2.7231299999999998E-3</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="9">
+      <c r="E19" s="4">
         <v>1.1167499999999999E-3</v>
       </c>
       <c r="F19" s="4"/>
@@ -15113,14 +15122,14 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="7">
         <v>2.9858300000000001E-3</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="7">
         <v>2.5271199999999999E-3</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="11">
+      <c r="E20" s="7">
         <v>1.2852899999999999E-3</v>
       </c>
       <c r="F20" s="7"/>
@@ -15129,14 +15138,14 @@
       <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="4">
         <v>2.8755400000000002E-3</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="4">
         <v>2.3422400000000002E-3</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="11">
+      <c r="E21" s="7">
         <v>1.8649999999999999E-5</v>
       </c>
       <c r="F21" s="4"/>
@@ -15145,14 +15154,14 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="7">
         <v>2.6509300000000001E-3</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="7">
         <v>2.19286E-3</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="9">
+      <c r="E22" s="4">
         <v>1.115E-5</v>
       </c>
       <c r="F22" s="7"/>
@@ -15161,10 +15170,10 @@
       <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="4">
         <v>2.54967E-3</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="4">
         <v>2.0604600000000001E-3</v>
       </c>
       <c r="D23" s="4"/>
@@ -15175,10 +15184,10 @@
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="7">
         <v>2.5265800000000001E-3</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="7">
         <v>1.9265700000000001E-3</v>
       </c>
       <c r="D24" s="4"/>
@@ -15189,10 +15198,10 @@
       <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="4">
         <v>2.6644899999999998E-3</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="4">
         <v>1.8121299999999999E-3</v>
       </c>
       <c r="D25" s="4"/>
@@ -15203,10 +15212,10 @@
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="7">
         <v>2.7015099999999998E-3</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="7">
         <v>1.7153100000000001E-3</v>
       </c>
       <c r="D26" s="4"/>
@@ -15217,10 +15226,10 @@
       <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="4">
         <v>1.95926E-3</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="4">
         <v>1.6143100000000001E-3</v>
       </c>
       <c r="D27" s="4"/>
@@ -15231,10 +15240,10 @@
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="7">
         <v>2.55033E-3</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="7">
         <v>1.5321E-3</v>
       </c>
       <c r="D28" s="4"/>
@@ -15245,10 +15254,10 @@
       <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="4">
         <v>1.89584E-3</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="4">
         <v>1.4551900000000001E-3</v>
       </c>
       <c r="D29" s="4"/>
@@ -15259,10 +15268,10 @@
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="7">
         <v>1.7471100000000001E-3</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="7">
         <v>1.39912E-3</v>
       </c>
       <c r="D30" s="4"/>
@@ -15273,10 +15282,10 @@
       <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="4">
         <v>1.86783E-3</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="4">
         <v>1.3320000000000001E-3</v>
       </c>
       <c r="D31" s="4"/>
@@ -15287,10 +15296,10 @@
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="7">
         <v>3.0886300000000002E-3</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="7">
         <v>1.25767E-3</v>
       </c>
       <c r="D32" s="4"/>
@@ -15301,10 +15310,10 @@
       <c r="A33" s="6">
         <v>31</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="4">
         <v>1.4974700000000001E-3</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="4">
         <v>1.24829E-3</v>
       </c>
       <c r="D33" s="4"/>
@@ -15315,10 +15324,10 @@
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="7">
         <v>1.76684E-3</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="7">
         <v>1.39302E-3</v>
       </c>
       <c r="D34" s="4"/>
@@ -15329,10 +15338,10 @@
       <c r="A35" s="6">
         <v>33</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="4">
         <v>1.81084E-3</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="4">
         <v>1.09617E-3</v>
       </c>
       <c r="D35" s="4"/>
@@ -15343,10 +15352,10 @@
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="7">
         <v>1.30843E-3</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="7">
         <v>1.0499000000000001E-3</v>
       </c>
       <c r="D36" s="4"/>
@@ -15357,10 +15366,10 @@
       <c r="A37" s="6">
         <v>35</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="4">
         <v>1.8559399999999999E-3</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="4">
         <v>1.2879600000000001E-3</v>
       </c>
       <c r="D37" s="4"/>
@@ -15371,10 +15380,10 @@
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="7">
         <v>1.21393E-3</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="7">
         <v>9.6235999999999999E-4</v>
       </c>
       <c r="D38" s="4"/>
@@ -15385,10 +15394,10 @@
       <c r="A39" s="6">
         <v>37</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="4">
         <v>1.1682699999999999E-3</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="4">
         <v>9.2681999999999997E-4</v>
       </c>
       <c r="D39" s="4"/>
@@ -15399,10 +15408,10 @@
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="7">
         <v>1.2866100000000001E-3</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="7">
         <v>8.8584000000000004E-4</v>
       </c>
       <c r="D40" s="4"/>
@@ -15413,10 +15422,10 @@
       <c r="A41" s="6">
         <v>39</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="4">
         <v>1.6625500000000001E-3</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="4">
         <v>8.5106000000000005E-4</v>
       </c>
       <c r="D41" s="4"/>
@@ -15427,10 +15436,10 @@
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="7">
         <v>1.1902200000000001E-3</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="7">
         <v>8.2052000000000004E-4</v>
       </c>
       <c r="D42" s="4"/>
@@ -15441,10 +15450,10 @@
       <c r="A43" s="6">
         <v>41</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="4">
         <v>1.04948E-3</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="4">
         <v>7.9330000000000004E-4</v>
       </c>
       <c r="D43" s="4"/>
@@ -15455,10 +15464,10 @@
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="7">
         <v>1.7234800000000001E-3</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="7">
         <v>7.6387999999999998E-4</v>
       </c>
       <c r="D44" s="4"/>
@@ -15469,10 +15478,10 @@
       <c r="A45" s="6">
         <v>43</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="4">
         <v>1.1444599999999999E-3</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="4">
         <v>7.3156999999999996E-4</v>
       </c>
       <c r="D45" s="4"/>
@@ -15483,10 +15492,10 @@
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="7">
         <v>1.1569499999999999E-3</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="7">
         <v>7.0551999999999995E-4</v>
       </c>
       <c r="D46" s="4"/>
@@ -15497,10 +15506,10 @@
       <c r="A47" s="6">
         <v>45</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="4">
         <v>1.23467E-3</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="4">
         <v>6.8190000000000004E-4</v>
       </c>
       <c r="D47" s="4"/>
@@ -15511,10 +15520,10 @@
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="7">
         <v>9.5786999999999999E-4</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="7">
         <v>6.6160000000000004E-4</v>
       </c>
       <c r="D48" s="4"/>
@@ -15525,10 +15534,10 @@
       <c r="A49" s="6">
         <v>47</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="4">
         <v>8.3305E-4</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="4">
         <v>6.3674999999999995E-4</v>
       </c>
       <c r="D49" s="4"/>
@@ -15539,10 +15548,10 @@
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="7">
         <v>8.8884999999999995E-4</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="7">
         <v>6.8829000000000004E-4</v>
       </c>
       <c r="D50" s="4"/>
@@ -15553,10 +15562,10 @@
       <c r="A51" s="6">
         <v>49</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="4">
         <v>7.9819999999999999E-4</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="4">
         <v>6.2129000000000004E-4</v>
       </c>
       <c r="D51" s="4"/>
@@ -15567,10 +15576,10 @@
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="7">
         <v>8.6879000000000004E-4</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="7">
         <v>5.7846000000000004E-4</v>
       </c>
       <c r="D52" s="4"/>
@@ -16222,7 +16231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC2CE8B-20A8-47E3-8AA4-309429EBAC54}">
   <dimension ref="A1:J260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
@@ -16256,1400 +16265,1400 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="9">
+      <c r="A2" s="4">
         <v>5.0059729999999997E-2</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="5">
         <v>1.9370000000000001</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="4">
         <v>4.9100900000000003E-2</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="5">
         <v>4.5019999999999998</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="4">
         <v>0.37958754</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="5">
         <v>2.8757000000000001</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="4">
         <v>36.051149270000003</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="5">
         <v>5.2770000000000001</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="11">
+      <c r="A3" s="7">
         <v>3.1883149999999999E-2</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="8">
         <v>3.0192000000000001</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="7">
         <v>3.2236420000000002E-2</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="8">
         <v>9.1923999999999992</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="7">
         <v>1.80370882</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="8">
         <v>5.8567999999999998</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="7">
         <v>111.3469355</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="8">
         <v>10.525</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="9">
+      <c r="A4" s="4">
         <v>2.3739030000000001E-2</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="5">
         <v>5.1097999999999999</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="4">
         <v>2.2542110000000001E-2</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="5">
         <v>13.621499999999999</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="4">
         <v>18.83585695</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="5">
         <v>8.7980999999999998</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="4">
         <v>85.395387310000004</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="5">
         <v>15.582599999999999</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="11">
+      <c r="A5" s="7">
         <v>1.8239459999999999E-2</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="8">
         <v>6.3605999999999998</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="7">
         <v>1.7092909999999999E-2</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="8">
         <v>14.8431</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="7">
         <v>88.645853389999999</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="8">
         <v>11.7301</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="7">
         <v>57.56943587</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="8">
         <v>18.500499999999999</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="9">
+      <c r="A6" s="4">
         <v>1.418766E-2</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="5">
         <v>7.4828000000000001</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="4">
         <v>1.334255E-2</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="5">
         <v>19.200900000000001</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="4">
         <v>36.801737660000001</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="5">
         <v>14.635199999999999</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="4">
         <v>57.31042368</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="5">
         <v>23.8187</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="11">
+      <c r="A7" s="7">
         <v>1.1755359999999999E-2</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="8">
         <v>8.6881000000000004</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="7">
         <v>1.075836E-2</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="8">
         <v>20.477399999999999</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="7">
         <v>53.069699489999998</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="8">
         <v>17.510899999999999</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="7">
         <v>40.548771090000002</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="8">
         <v>26.717400000000001</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="9">
+      <c r="A8" s="4">
         <v>9.7081700000000003E-3</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="5">
         <v>10.046900000000001</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="4">
         <v>8.7906600000000005E-3</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="5">
         <v>21.874300000000002</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="4">
         <v>30.4653791</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="5">
         <v>20.298500000000001</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="4">
         <v>42.129101040000002</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="5">
         <v>29.814599999999999</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="11">
+      <c r="A9" s="7">
         <v>8.2985200000000002E-3</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="8">
         <v>11.144299999999999</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="7">
         <v>7.4937399999999996E-3</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="8">
         <v>23.124600000000001</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="7">
         <v>39.388393899999997</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="8">
         <v>22.976400000000002</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="7">
         <v>31.885602070000001</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="8">
         <v>32.776899999999998</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="9">
+      <c r="A10" s="4">
         <v>7.1771999999999999E-3</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="5">
         <v>12.242599999999999</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="4">
         <v>6.3484400000000003E-3</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="5">
         <v>27.953700000000001</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="4">
         <v>26.415387110000001</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="5">
         <v>25.6873</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="4">
         <v>33.638340659999997</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="5">
         <v>38.840200000000003</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="11">
+      <c r="A11" s="7">
         <v>6.3868900000000001E-3</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="8">
         <v>13.331</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="7">
         <v>5.6237199999999996E-3</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="8">
         <v>29.243400000000001</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="7">
         <v>31.729988410000001</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="8">
         <v>28.396000000000001</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="7">
         <v>25.875440529999999</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="8">
         <v>41.942399999999999</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="9">
+      <c r="A12" s="4">
         <v>5.6466099999999998E-3</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="5">
         <v>14.621600000000001</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="4">
         <v>4.8555899999999999E-3</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="5">
         <v>30.560700000000001</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="4">
         <v>22.32157136</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="5">
         <v>31.073599999999999</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="4">
         <v>27.368117940000001</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="5">
         <v>46.764299999999999</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="11">
+      <c r="A13" s="7">
         <v>5.1401900000000002E-3</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="8">
         <v>16.068999999999999</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="7">
         <v>4.3051900000000004E-3</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="8">
         <v>31.833600000000001</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="7">
         <v>25.83233761</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="8">
         <v>33.724699999999999</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="7">
         <v>22.042467460000001</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="8">
         <v>50.0869</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="9">
+      <c r="A14" s="4">
         <v>4.8675899999999998E-3</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="5">
         <v>17.194400000000002</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="4">
         <v>3.8777199999999999E-3</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="5">
         <v>33.105200000000004</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="4">
         <v>19.579791409999999</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="5">
         <v>36.415100000000002</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="4">
         <v>22.9627622</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="5">
         <v>53.189100000000003</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="11">
+      <c r="A15" s="7">
         <v>4.0829300000000002E-3</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="8">
         <v>18.426600000000001</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="7">
         <v>3.5464200000000002E-3</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="8">
         <v>34.554600000000001</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="7">
         <v>21.91288037</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="8">
         <v>39.094700000000003</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="7">
         <v>19.18649915</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="8">
         <v>55.986800000000002</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="9">
+      <c r="A16" s="4">
         <v>4.4474800000000002E-3</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="5">
         <v>20.037700000000001</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="4">
         <v>3.2104400000000002E-3</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="5">
         <v>35.811700000000002</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="4">
         <v>17.46756225</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="5">
         <v>42.018599999999999</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="4">
         <v>20.033378559999999</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="5">
         <v>58.7804</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="11">
+      <c r="A17" s="7">
         <v>3.5114399999999998E-3</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="8">
         <v>21.2896</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="7">
         <v>2.9560300000000001E-3</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="8">
         <v>37.042900000000003</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="7">
         <v>18.83329569</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="8">
         <v>44.981200000000001</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="7">
         <v>16.638316750000001</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="8">
         <v>61.5276</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="9">
+      <c r="A18" s="4">
         <v>3.2627699999999999E-3</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="5">
         <v>22.412500000000001</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="4">
         <v>2.7231299999999998E-3</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="5">
         <v>41.413600000000002</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="4">
         <v>15.40082591</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="5">
         <v>47.872500000000002</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="4">
         <v>17.50269239</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="5">
         <v>66.585300000000004</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="11">
+      <c r="A19" s="7">
         <v>2.9858300000000001E-3</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="8">
         <v>23.658999999999999</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="7">
         <v>2.5271199999999999E-3</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="8">
         <v>42.741199999999999</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="7">
         <v>16.431728469999999</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="8">
         <v>50.676600000000001</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="7">
         <v>14.506968499999999</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="8">
         <v>69.493700000000004</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="9">
+      <c r="A20" s="4">
         <v>2.8755400000000002E-3</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="5">
         <v>24.950399999999998</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="4">
         <v>2.3422400000000002E-3</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="5">
         <v>43.984200000000001</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="4">
         <v>13.81116121</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="5">
         <v>53.608400000000003</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="4">
         <v>15.55693267</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="5">
         <v>72.402299999999997</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="11">
+      <c r="A21" s="7">
         <v>2.6509300000000001E-3</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="8">
         <v>26.0642</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="7">
         <v>2.19286E-3</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="8">
         <v>45.292000000000002</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="7">
         <v>14.539638030000001</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="8">
         <v>56.3018</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="7">
         <v>12.84329922</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="8">
         <v>75.069699999999997</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="9">
+      <c r="A22" s="4">
         <v>2.54967E-3</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="5">
         <v>27.131599999999999</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="4">
         <v>2.0604600000000001E-3</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="5">
         <v>46.578400000000002</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="4">
         <v>12.57414298</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="5">
         <v>59.071199999999997</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="4">
         <v>13.936461850000001</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="5">
         <v>77.949399999999997</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="11">
+      <c r="A23" s="7">
         <v>2.5265800000000001E-3</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="8">
         <v>28.987300000000001</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="7">
         <v>1.9265700000000001E-3</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="8">
         <v>47.852699999999999</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="7">
         <v>12.930357450000001</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="8">
         <v>61.877899999999997</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="7">
         <v>11.54764385</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="8">
         <v>80.813199999999995</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="9">
+      <c r="A24" s="4">
         <v>2.6644899999999998E-3</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="5">
         <v>30.0627</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="4">
         <v>1.8121299999999999E-3</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="5">
         <v>49.085599999999999</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="4">
         <v>11.495161400000001</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="5">
         <v>64.787099999999995</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="4">
         <v>12.623849079999999</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="5">
         <v>83.862899999999996</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="11">
+      <c r="A25" s="7">
         <v>2.7015099999999998E-3</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="8">
         <v>31.185500000000001</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="7">
         <v>1.7153100000000001E-3</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="8">
         <v>50.357599999999998</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="7">
         <v>11.558872239999999</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="8">
         <v>67.709900000000005</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="7">
         <v>10.20310302</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="8">
         <v>86.713399999999993</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="9">
+      <c r="A26" s="4">
         <v>1.95926E-3</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="5">
         <v>33.453099999999999</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="4">
         <v>1.6143100000000001E-3</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="5">
         <v>51.650599999999997</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="4">
         <v>10.617512120000001</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="5">
         <v>70.589500000000001</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="4">
         <v>11.687975489999999</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="5">
         <v>89.626400000000004</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="11">
+      <c r="A27" s="7">
         <v>2.55033E-3</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="8">
         <v>34.8566</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="7">
         <v>1.5321E-3</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="8">
         <v>52.943100000000001</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="7">
         <v>10.636109920000001</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="8">
         <v>73.758700000000005</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="7">
         <v>9.5819165099999992</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="8">
         <v>92.498699999999999</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="9">
+      <c r="A28" s="4">
         <v>1.89584E-3</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="5">
         <v>35.9377</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="4">
         <v>1.4551900000000001E-3</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="5">
         <v>54.223799999999997</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="4">
         <v>9.7584726499999999</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="5">
         <v>77.350399999999993</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="4">
         <v>10.67989399</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="5">
         <v>95.475899999999996</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="11">
+      <c r="A29" s="7">
         <v>1.7471100000000001E-3</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="8">
         <v>37.252400000000002</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="7">
         <v>1.39912E-3</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="8">
         <v>55.504399999999997</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="7">
         <v>9.7968783699999999</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="8">
         <v>80.333600000000004</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="7">
         <v>8.8674574499999999</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="8">
         <v>98.477999999999994</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="9">
+      <c r="A30" s="4">
         <v>1.86783E-3</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="5">
         <v>38.4069</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="4">
         <v>1.3320000000000001E-3</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="5">
         <v>56.792200000000001</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="4">
         <v>9.0284658400000009</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="5">
         <v>83.096599999999995</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="4">
         <v>9.8359986300000006</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="5">
         <v>101.66500000000001</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="11">
+      <c r="A31" s="7">
         <v>3.0886300000000002E-3</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="8">
         <v>39.549700000000001</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="7">
         <v>1.25767E-3</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="8">
         <v>58.170499999999997</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="7">
         <v>9.0937453599999998</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="8">
         <v>85.962500000000006</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="7">
         <v>8.3023400800000005</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="8">
         <v>104.4423</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="9">
+      <c r="A32" s="4">
         <v>1.4974700000000001E-3</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="5">
         <v>40.619999999999997</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="4">
         <v>1.24829E-3</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="5">
         <v>59.4437</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="4">
         <v>8.3875571000000004</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="5">
         <v>88.740600000000001</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="4">
         <v>9.1029740199999996</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="5">
         <v>107.33629999999999</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="11">
+      <c r="A33" s="7">
         <v>1.76684E-3</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="8">
         <v>41.808500000000002</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="7">
         <v>1.39302E-3</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="8">
         <v>60.760100000000001</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="7">
         <v>8.4528830199999998</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="8">
         <v>91.524299999999997</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="7">
         <v>7.8009505800000003</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="8">
         <v>110.1174</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="8"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="9">
+      <c r="A34" s="4">
         <v>1.81084E-3</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="5">
         <v>42.944899999999997</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="4">
         <v>1.09617E-3</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="5">
         <v>65.380700000000004</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="4">
         <v>7.8602994300000004</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="5">
         <v>94.203699999999998</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="4">
         <v>8.4472213099999998</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="5">
         <v>115.32340000000001</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" s="11">
+      <c r="A35" s="7">
         <v>1.30843E-3</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="8">
         <v>44.051099999999998</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="7">
         <v>1.0499000000000001E-3</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="8">
         <v>66.817800000000005</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="7">
         <v>7.9090709099999996</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="8">
         <v>97.0839</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="7">
         <v>7.3624604900000001</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="8">
         <v>118.188</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="9">
+      <c r="A36" s="4">
         <v>1.8559399999999999E-3</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="5">
         <v>45.182099999999998</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="4">
         <v>1.2879600000000001E-3</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="5">
         <v>68.090599999999995</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="4">
         <v>7.3737310999999996</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="5">
         <v>99.986599999999996</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="4">
         <v>7.8836916700000002</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="5">
         <v>120.9628</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="11">
+      <c r="A37" s="7">
         <v>1.21393E-3</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="8">
         <v>46.3095</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="7">
         <v>9.6235999999999999E-4</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="8">
         <v>69.332599999999999</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="7">
         <v>7.4352223899999998</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="8">
         <v>102.9254</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="7">
         <v>6.9467397399999999</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="8">
         <v>124.2187</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="9">
+      <c r="A38" s="4">
         <v>1.1682699999999999E-3</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="5">
         <v>47.423099999999998</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="4">
         <v>9.2681999999999997E-4</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="5">
         <v>70.599800000000002</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="4">
         <v>6.9463805599999997</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="5">
         <v>105.73309999999999</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="4">
         <v>7.3981402300000001</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="5">
         <v>127.307</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="11">
+      <c r="A39" s="7">
         <v>1.2866100000000001E-3</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="8">
         <v>48.536499999999997</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="7">
         <v>8.8584000000000004E-4</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="8">
         <v>71.829499999999996</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="7">
         <v>6.9597721799999999</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="8">
         <v>108.7064</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="7">
         <v>6.5330233099999999</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="8">
         <v>130.27520000000001</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="8"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="9">
+      <c r="A40" s="4">
         <v>1.6625500000000001E-3</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="5">
         <v>49.674399999999999</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="4">
         <v>8.5106000000000005E-4</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="5">
         <v>73.083200000000005</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="4">
         <v>6.5348339099999997</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="5">
         <v>111.5394</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="4">
         <v>6.9652751400000001</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="5">
         <v>133.59440000000001</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="11">
+      <c r="A41" s="7">
         <v>1.1902200000000001E-3</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="8">
         <v>50.846400000000003</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="7">
         <v>8.2052000000000004E-4</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="8">
         <v>74.298199999999994</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="7">
         <v>6.5927913699999996</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="8">
         <v>114.39400000000001</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="7">
         <v>6.1802609400000001</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="8">
         <v>136.8426</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="8"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="9">
+      <c r="A42" s="4">
         <v>1.04948E-3</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="5">
         <v>51.961100000000002</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="4">
         <v>7.9330000000000004E-4</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="5">
         <v>75.558099999999996</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="4">
         <v>6.2149392900000002</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="5">
         <v>117.2458</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="4">
         <v>6.5842572099999996</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="5">
         <v>139.78899999999999</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43" s="11">
+      <c r="A43" s="7">
         <v>1.7234800000000001E-3</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="8">
         <v>53.1036</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="7">
         <v>7.6387999999999998E-4</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="8">
         <v>76.778400000000005</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="7">
         <v>6.2327499599999996</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="8">
         <v>119.99299999999999</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="7">
         <v>5.8874998700000001</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H43" s="8">
         <v>142.78270000000001</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="8"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44" s="9">
+      <c r="A44" s="4">
         <v>1.1444599999999999E-3</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="5">
         <v>54.223399999999998</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="4">
         <v>7.3156999999999996E-4</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="5">
         <v>78.069400000000002</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="4">
         <v>5.9035886499999997</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="5">
         <v>122.759</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="4">
         <v>6.2548329300000001</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="5">
         <v>145.58850000000001</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" s="11">
+      <c r="A45" s="7">
         <v>1.1569499999999999E-3</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="8">
         <v>55.376800000000003</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="7">
         <v>7.0551999999999995E-4</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="8">
         <v>79.276499999999999</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="7">
         <v>5.9295136700000004</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="8">
         <v>125.5902</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="7">
         <v>5.6036711199999996</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="8">
         <v>148.50370000000001</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="8"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A46" s="9">
+      <c r="A46" s="4">
         <v>1.23467E-3</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="5">
         <v>56.526400000000002</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="4">
         <v>6.8190000000000004E-4</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="5">
         <v>80.521799999999999</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="4">
         <v>5.6266893700000002</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="5">
         <v>128.44739999999999</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="4">
         <v>5.9335233399999998</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="5">
         <v>151.5547</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="5"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A47" s="11">
+      <c r="A47" s="7">
         <v>9.5786999999999999E-4</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="8">
         <v>57.598999999999997</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="7">
         <v>6.6160000000000004E-4</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="8">
         <v>81.756500000000003</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="7">
         <v>5.6564636799999999</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="8">
         <v>131.3775</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="7">
         <v>5.3671445100000001</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H47" s="8">
         <v>154.38</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="8"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A48" s="9">
+      <c r="A48" s="4">
         <v>8.3305E-4</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="5">
         <v>58.724299999999999</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="4">
         <v>6.3674999999999995E-4</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="5">
         <v>83.062700000000007</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="4">
         <v>5.3745057799999998</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="5">
         <v>134.26689999999999</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="4">
         <v>5.6716824099999998</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H48" s="5">
         <v>157.13499999999999</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="5"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A49" s="11">
+      <c r="A49" s="7">
         <v>8.8884999999999995E-4</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="8">
         <v>59.892499999999998</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="7">
         <v>6.8829000000000004E-4</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="8">
         <v>84.334500000000006</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="7">
         <v>5.3710893100000003</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="8">
         <v>137.26249999999999</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G49" s="7">
         <v>5.1148381299999999</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H49" s="8">
         <v>159.99850000000001</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="8"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A50" s="9">
+      <c r="A50" s="4">
         <v>7.9819999999999999E-4</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="5">
         <v>61.061599999999999</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="4">
         <v>6.2129000000000004E-4</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="5">
         <v>85.610500000000002</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="4">
         <v>5.1218155300000001</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="5">
         <v>140.17320000000001</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="4">
         <v>5.3924741000000003</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H50" s="5">
         <v>163.13210000000001</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="5"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A51" s="11">
+      <c r="A51" s="7">
         <v>8.6879000000000004E-4</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="8">
         <v>62.139400000000002</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="7">
         <v>5.7846000000000004E-4</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="8">
         <v>86.838999999999999</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E51" s="7">
         <v>5.1370941300000004</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="8">
         <v>143.16249999999999</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G51" s="7">
         <v>4.9121146600000003</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H51" s="8">
         <v>166.0915</v>
       </c>
       <c r="I51" s="7"/>
@@ -17659,16 +17668,16 @@
       <c r="A52" s="3"/>
       <c r="C52" s="4"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="9">
+      <c r="E52" s="4">
         <v>4.9042296500000004</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="5">
         <v>146.15539999999999</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="4">
         <v>5.1429834400000001</v>
       </c>
-      <c r="H52" s="10">
+      <c r="H52" s="5">
         <v>169.137</v>
       </c>
       <c r="I52" s="4"/>
@@ -17678,16 +17687,16 @@
       <c r="A53" s="6"/>
       <c r="C53" s="7"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="11">
+      <c r="E53" s="7">
         <v>4.9221665999999997</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F53" s="8">
         <v>148.91210000000001</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G53" s="7">
         <v>4.6969793700000002</v>
       </c>
-      <c r="H53" s="12">
+      <c r="H53" s="8">
         <v>172.09139999999999</v>
       </c>
       <c r="I53" s="7"/>
@@ -17697,16 +17706,16 @@
       <c r="A54" s="3"/>
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="9">
+      <c r="E54" s="4">
         <v>4.7236025699999997</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="5">
         <v>151.64850000000001</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="4">
         <v>4.9389551300000001</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H54" s="5">
         <v>175.1146</v>
       </c>
       <c r="I54" s="4"/>
@@ -17716,16 +17725,16 @@
       <c r="A55" s="6"/>
       <c r="C55" s="7"/>
       <c r="D55" s="8"/>
-      <c r="E55" s="11">
+      <c r="E55" s="7">
         <v>4.7225436800000002</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="8">
         <v>154.4632</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G55" s="7">
         <v>4.5282517899999997</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="8">
         <v>178.19749999999999</v>
       </c>
       <c r="I55" s="7"/>
@@ -17735,16 +17744,16 @@
       <c r="A56" s="3"/>
       <c r="C56" s="4"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="9">
+      <c r="E56" s="4">
         <v>4.5429954700000001</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="5">
         <v>157.5438</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="4">
         <v>4.7586538899999997</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H56" s="5">
         <v>181.2004</v>
       </c>
       <c r="I56" s="4"/>
@@ -17754,16 +17763,16 @@
       <c r="A57" s="6"/>
       <c r="C57" s="7"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="11">
+      <c r="E57" s="7">
         <v>4.5105900999999999</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="8">
         <v>160.6157</v>
       </c>
-      <c r="G57" s="11">
+      <c r="G57" s="7">
         <v>4.3385087000000002</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H57" s="8">
         <v>184.1259</v>
       </c>
       <c r="I57" s="7"/>
@@ -17773,16 +17782,16 @@
       <c r="A58" s="3"/>
       <c r="C58" s="4"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="9">
+      <c r="E58" s="4">
         <v>4.3579581599999999</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F58" s="5">
         <v>163.74760000000001</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="4">
         <v>4.5546207900000004</v>
       </c>
-      <c r="H58" s="10">
+      <c r="H58" s="5">
         <v>186.9982</v>
       </c>
       <c r="I58" s="4"/>
@@ -17792,16 +17801,16 @@
       <c r="A59" s="6"/>
       <c r="C59" s="7"/>
       <c r="D59" s="8"/>
-      <c r="E59" s="11">
+      <c r="E59" s="7">
         <v>4.3383759</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="8">
         <v>166.5702</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G59" s="7">
         <v>4.1520560599999996</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H59" s="8">
         <v>190.10820000000001</v>
       </c>
       <c r="I59" s="7"/>
@@ -17811,16 +17820,16 @@
       <c r="A60" s="3"/>
       <c r="C60" s="4"/>
       <c r="D60" s="5"/>
-      <c r="E60" s="9">
+      <c r="E60" s="4">
         <v>4.1952108199999998</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F60" s="5">
         <v>169.31819999999999</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="4">
         <v>4.3684221399999998</v>
       </c>
-      <c r="H60" s="10">
+      <c r="H60" s="5">
         <v>192.994</v>
       </c>
       <c r="I60" s="4"/>
@@ -17830,16 +17839,16 @@
       <c r="A61" s="6"/>
       <c r="C61" s="7"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="11">
+      <c r="E61" s="7">
         <v>4.1710367799999997</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F61" s="8">
         <v>172.24080000000001</v>
       </c>
-      <c r="G61" s="11">
+      <c r="G61" s="7">
         <v>3.9955353800000002</v>
       </c>
-      <c r="H61" s="12">
+      <c r="H61" s="8">
         <v>196.10550000000001</v>
       </c>
       <c r="I61" s="7"/>
@@ -17849,16 +17858,16 @@
       <c r="A62" s="3"/>
       <c r="C62" s="4"/>
       <c r="D62" s="5"/>
-      <c r="E62" s="9">
+      <c r="E62" s="4">
         <v>4.0459211899999996</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F62" s="5">
         <v>175.0343</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G62" s="4">
         <v>4.2104180299999996</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H62" s="5">
         <v>199.1345</v>
       </c>
       <c r="I62" s="4"/>
@@ -17868,16 +17877,16 @@
       <c r="A63" s="6"/>
       <c r="C63" s="7"/>
       <c r="D63" s="8"/>
-      <c r="E63" s="11">
+      <c r="E63" s="7">
         <v>4.0172025700000003</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F63" s="8">
         <v>178.0283</v>
       </c>
-      <c r="G63" s="11">
+      <c r="G63" s="7">
         <v>3.8467933400000001</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H63" s="8">
         <v>202.09739999999999</v>
       </c>
       <c r="I63" s="7"/>
@@ -17887,16 +17896,16 @@
       <c r="A64" s="3"/>
       <c r="C64" s="4"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="9">
+      <c r="E64" s="4">
         <v>3.89310891</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F64" s="5">
         <v>181.04929999999999</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G64" s="4">
         <v>4.0598125300000003</v>
       </c>
-      <c r="H64" s="10">
+      <c r="H64" s="5">
         <v>205.28</v>
       </c>
       <c r="I64" s="4"/>
@@ -17906,16 +17915,16 @@
       <c r="A65" s="6"/>
       <c r="C65" s="7"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="11">
+      <c r="E65" s="7">
         <v>3.8575648500000002</v>
       </c>
-      <c r="F65" s="12">
+      <c r="F65" s="8">
         <v>184.36279999999999</v>
       </c>
-      <c r="G65" s="11">
+      <c r="G65" s="7">
         <v>3.72776263</v>
       </c>
-      <c r="H65" s="12">
+      <c r="H65" s="8">
         <v>208.19110000000001</v>
       </c>
       <c r="I65" s="7"/>
@@ -17925,16 +17934,16 @@
       <c r="A66" s="3"/>
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="9">
+      <c r="E66" s="4">
         <v>3.7585797099999998</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F66" s="5">
         <v>187.1045</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G66" s="4">
         <v>3.9100498799999999</v>
       </c>
-      <c r="H66" s="10">
+      <c r="H66" s="5">
         <v>213.4307</v>
       </c>
       <c r="I66" s="4"/>
@@ -17944,16 +17953,16 @@
       <c r="A67" s="6"/>
       <c r="C67" s="7"/>
       <c r="D67" s="8"/>
-      <c r="E67" s="11">
+      <c r="E67" s="7">
         <v>3.72444979</v>
       </c>
-      <c r="F67" s="12">
+      <c r="F67" s="8">
         <v>190.17009999999999</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G67" s="7">
         <v>3.5868726799999999</v>
       </c>
-      <c r="H67" s="12">
+      <c r="H67" s="8">
         <v>216.4948</v>
       </c>
       <c r="I67" s="7"/>
@@ -17963,16 +17972,16 @@
       <c r="A68" s="3"/>
       <c r="C68" s="4"/>
       <c r="D68" s="5"/>
-      <c r="E68" s="9">
+      <c r="E68" s="4">
         <v>3.63515933</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F68" s="5">
         <v>193.1454</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G68" s="4">
         <v>3.7721892000000001</v>
       </c>
-      <c r="H68" s="10">
+      <c r="H68" s="5">
         <v>219.40819999999999</v>
       </c>
       <c r="I68" s="4"/>
@@ -17982,16 +17991,16 @@
       <c r="A69" s="6"/>
       <c r="C69" s="7"/>
       <c r="D69" s="8"/>
-      <c r="E69" s="11">
+      <c r="E69" s="7">
         <v>3.5973347699999998</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F69" s="8">
         <v>196.3015</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G69" s="7">
         <v>3.4664723400000002</v>
       </c>
-      <c r="H69" s="12">
+      <c r="H69" s="8">
         <v>222.3613</v>
       </c>
       <c r="I69" s="7"/>
@@ -18001,16 +18010,16 @@
       <c r="A70" s="3"/>
       <c r="C70" s="4"/>
       <c r="D70" s="5"/>
-      <c r="E70" s="9">
+      <c r="E70" s="4">
         <v>3.5201238400000001</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F70" s="5">
         <v>199.65889999999999</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G70" s="4">
         <v>3.64063019</v>
       </c>
-      <c r="H70" s="10">
+      <c r="H70" s="5">
         <v>225.29140000000001</v>
       </c>
       <c r="I70" s="4"/>
@@ -18020,16 +18029,16 @@
       <c r="A71" s="6"/>
       <c r="C71" s="7"/>
       <c r="D71" s="8"/>
-      <c r="E71" s="11">
+      <c r="E71" s="7">
         <v>3.4811816699999998</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F71" s="8">
         <v>203.23840000000001</v>
       </c>
-      <c r="G71" s="11">
+      <c r="G71" s="7">
         <v>3.3506431700000001</v>
       </c>
-      <c r="H71" s="12">
+      <c r="H71" s="8">
         <v>228.49420000000001</v>
       </c>
       <c r="I71" s="7"/>
@@ -18039,16 +18048,16 @@
       <c r="A72" s="3"/>
       <c r="C72" s="4"/>
       <c r="D72" s="5"/>
-      <c r="E72" s="9">
+      <c r="E72" s="4">
         <v>3.40749177</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F72" s="5">
         <v>206.16419999999999</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G72" s="4">
         <v>3.52619551</v>
       </c>
-      <c r="H72" s="10">
+      <c r="H72" s="5">
         <v>231.71170000000001</v>
       </c>
       <c r="I72" s="4"/>
@@ -18057,16 +18066,16 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="6"/>
       <c r="D73" s="8"/>
-      <c r="E73" s="11">
+      <c r="E73" s="7">
         <v>3.3658329999999999</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F73" s="8">
         <v>208.86799999999999</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G73" s="7">
         <v>3.2551957599999999</v>
       </c>
-      <c r="H73" s="12">
+      <c r="H73" s="8">
         <v>235.01849999999999</v>
       </c>
       <c r="I73" s="7"/>
@@ -18075,16 +18084,16 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="3"/>
       <c r="D74" s="5"/>
-      <c r="E74" s="9">
+      <c r="E74" s="4">
         <v>3.29890873</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F74" s="5">
         <v>211.96770000000001</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G74" s="4">
         <v>3.4123575399999999</v>
       </c>
-      <c r="H74" s="10">
+      <c r="H74" s="5">
         <v>239.51140000000001</v>
       </c>
       <c r="I74" s="4"/>
@@ -18093,16 +18102,16 @@
     <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="6"/>
       <c r="D75" s="8"/>
-      <c r="E75" s="11">
+      <c r="E75" s="7">
         <v>3.2606161</v>
       </c>
-      <c r="F75" s="12">
+      <c r="F75" s="8">
         <v>215.047</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G75" s="7">
         <v>3.1426982799999998</v>
       </c>
-      <c r="H75" s="12">
+      <c r="H75" s="8">
         <v>243.80430000000001</v>
       </c>
       <c r="I75" s="7"/>
@@ -18111,16 +18120,16 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76" s="3"/>
       <c r="D76" s="5"/>
-      <c r="E76" s="9">
+      <c r="E76" s="4">
         <v>3.2032903899999998</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F76" s="5">
         <v>217.94649999999999</v>
       </c>
-      <c r="G76" s="9">
+      <c r="G76" s="4">
         <v>3.31923791</v>
       </c>
-      <c r="H76" s="10">
+      <c r="H76" s="5">
         <v>247.2182</v>
       </c>
       <c r="I76" s="4"/>
@@ -18129,16 +18138,16 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77" s="6"/>
       <c r="D77" s="8"/>
-      <c r="E77" s="11">
+      <c r="E77" s="7">
         <v>3.1554143899999998</v>
       </c>
-      <c r="F77" s="12">
+      <c r="F77" s="8">
         <v>220.7269</v>
       </c>
-      <c r="G77" s="11">
+      <c r="G77" s="7">
         <v>3.0504378499999998</v>
       </c>
-      <c r="H77" s="12">
+      <c r="H77" s="8">
         <v>250.24279999999999</v>
       </c>
       <c r="I77" s="7"/>
@@ -18147,16 +18156,16 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" s="3"/>
       <c r="D78" s="5"/>
-      <c r="E78" s="9">
+      <c r="E78" s="4">
         <v>3.10860263</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F78" s="5">
         <v>223.60290000000001</v>
       </c>
-      <c r="G78" s="9">
+      <c r="G78" s="4">
         <v>3.21981231</v>
       </c>
-      <c r="H78" s="10">
+      <c r="H78" s="5">
         <v>253.30930000000001</v>
       </c>
       <c r="I78" s="4"/>
@@ -18165,16 +18174,16 @@
     <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" s="6"/>
       <c r="D79" s="8"/>
-      <c r="E79" s="11">
+      <c r="E79" s="7">
         <v>3.05738727</v>
       </c>
-      <c r="F79" s="12">
+      <c r="F79" s="8">
         <v>226.5326</v>
       </c>
-      <c r="G79" s="11">
+      <c r="G79" s="7">
         <v>2.9547767399999998</v>
       </c>
-      <c r="H79" s="12">
+      <c r="H79" s="8">
         <v>256.5163</v>
       </c>
       <c r="I79" s="7"/>
@@ -18183,16 +18192,16 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" s="3"/>
       <c r="D80" s="5"/>
-      <c r="E80" s="9">
+      <c r="E80" s="4">
         <v>3.0200342</v>
       </c>
-      <c r="F80" s="10">
+      <c r="F80" s="5">
         <v>229.3331</v>
       </c>
-      <c r="G80" s="9">
+      <c r="G80" s="4">
         <v>3.1221058899999998</v>
       </c>
-      <c r="H80" s="10">
+      <c r="H80" s="5">
         <v>260.84710000000001</v>
       </c>
       <c r="I80" s="4"/>
@@ -18201,16 +18210,16 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" s="6"/>
       <c r="D81" s="8"/>
-      <c r="E81" s="11">
+      <c r="E81" s="7">
         <v>2.9673333099999999</v>
       </c>
-      <c r="F81" s="12">
+      <c r="F81" s="8">
         <v>232.34909999999999</v>
       </c>
-      <c r="G81" s="11">
+      <c r="G81" s="7">
         <v>2.86734607</v>
       </c>
-      <c r="H81" s="12">
+      <c r="H81" s="8">
         <v>264.23579999999998</v>
       </c>
       <c r="I81" s="7"/>
@@ -18219,16 +18228,16 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="3"/>
       <c r="D82" s="5"/>
-      <c r="E82" s="9">
+      <c r="E82" s="4">
         <v>2.93225603</v>
       </c>
-      <c r="F82" s="10">
+      <c r="F82" s="5">
         <v>235.5411</v>
       </c>
-      <c r="G82" s="9">
+      <c r="G82" s="4">
         <v>3.0330654199999998</v>
       </c>
-      <c r="H82" s="10">
+      <c r="H82" s="5">
         <v>267.72640000000001</v>
       </c>
       <c r="I82" s="4"/>
@@ -18237,16 +18246,16 @@
     <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83" s="6"/>
       <c r="D83" s="8"/>
-      <c r="E83" s="11">
+      <c r="E83" s="7">
         <v>2.8841134099999999</v>
       </c>
-      <c r="F83" s="12">
+      <c r="F83" s="8">
         <v>238.5949</v>
       </c>
-      <c r="G83" s="11">
+      <c r="G83" s="7">
         <v>2.79402375</v>
       </c>
-      <c r="H83" s="12">
+      <c r="H83" s="8">
         <v>271.6884</v>
       </c>
       <c r="I83" s="7"/>
@@ -18255,16 +18264,16 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84" s="3"/>
       <c r="D84" s="5"/>
-      <c r="E84" s="9">
+      <c r="E84" s="4">
         <v>2.85424466</v>
       </c>
-      <c r="F84" s="10">
+      <c r="F84" s="5">
         <v>241.47730000000001</v>
       </c>
-      <c r="G84" s="9">
+      <c r="G84" s="4">
         <v>2.94485419</v>
       </c>
-      <c r="H84" s="10">
+      <c r="H84" s="5">
         <v>275.63979999999998</v>
       </c>
       <c r="I84" s="4"/>
@@ -18273,16 +18282,16 @@
     <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" s="6"/>
       <c r="D85" s="8"/>
-      <c r="E85" s="11">
+      <c r="E85" s="7">
         <v>2.8052319099999998</v>
       </c>
-      <c r="F85" s="12">
+      <c r="F85" s="8">
         <v>244.28550000000001</v>
       </c>
-      <c r="G85" s="11">
+      <c r="G85" s="7">
         <v>2.7214506100000002</v>
       </c>
-      <c r="H85" s="12">
+      <c r="H85" s="8">
         <v>279.40800000000002</v>
       </c>
       <c r="I85" s="7"/>
@@ -18291,16 +18300,16 @@
     <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86" s="3"/>
       <c r="D86" s="5"/>
-      <c r="E86" s="9">
+      <c r="E86" s="4">
         <v>2.7739538399999999</v>
       </c>
-      <c r="F86" s="10">
+      <c r="F86" s="5">
         <v>247.2603</v>
       </c>
-      <c r="G86" s="9">
+      <c r="G86" s="4">
         <v>2.86687395</v>
       </c>
-      <c r="H86" s="10">
+      <c r="H86" s="5">
         <v>283.63049999999998</v>
       </c>
       <c r="I86" s="4"/>
@@ -18309,16 +18318,16 @@
     <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87" s="6"/>
       <c r="D87" s="8"/>
-      <c r="E87" s="11">
+      <c r="E87" s="7">
         <v>2.7249694600000001</v>
       </c>
-      <c r="F87" s="12">
+      <c r="F87" s="8">
         <v>250.2287</v>
       </c>
-      <c r="G87" s="11">
+      <c r="G87" s="7">
         <v>2.6466851500000002</v>
       </c>
-      <c r="H87" s="12">
+      <c r="H87" s="8">
         <v>288.04559999999998</v>
       </c>
       <c r="I87" s="7"/>
@@ -18327,16 +18336,16 @@
     <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88" s="3"/>
       <c r="D88" s="5"/>
-      <c r="E88" s="9">
+      <c r="E88" s="4">
         <v>2.7033688300000001</v>
       </c>
-      <c r="F88" s="10">
+      <c r="F88" s="5">
         <v>253.15530000000001</v>
       </c>
-      <c r="G88" s="9">
+      <c r="G88" s="4">
         <v>2.7878081300000002</v>
       </c>
-      <c r="H88" s="10">
+      <c r="H88" s="5">
         <v>291.56790000000001</v>
       </c>
       <c r="I88" s="4"/>
@@ -18345,16 +18354,16 @@
     <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" s="6"/>
       <c r="D89" s="8"/>
-      <c r="E89" s="11">
+      <c r="E89" s="7">
         <v>2.65269471</v>
       </c>
-      <c r="F89" s="12">
+      <c r="F89" s="8">
         <v>255.94239999999999</v>
       </c>
-      <c r="G89" s="11">
+      <c r="G89" s="7">
         <v>2.5781759599999998</v>
       </c>
-      <c r="H89" s="12">
+      <c r="H89" s="8">
         <v>295.10230000000001</v>
       </c>
       <c r="I89" s="7"/>
@@ -18363,16 +18372,16 @@
     <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90" s="3"/>
       <c r="D90" s="5"/>
-      <c r="E90" s="9">
+      <c r="E90" s="4">
         <v>2.6299008100000001</v>
       </c>
-      <c r="F90" s="10">
+      <c r="F90" s="5">
         <v>258.91030000000001</v>
       </c>
-      <c r="G90" s="9">
+      <c r="G90" s="4">
         <v>2.7136562099999999</v>
       </c>
-      <c r="H90" s="10">
+      <c r="H90" s="5">
         <v>298.41520000000003</v>
       </c>
       <c r="I90" s="4"/>
@@ -18381,16 +18390,16 @@
     <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91" s="6"/>
       <c r="D91" s="8"/>
-      <c r="E91" s="11">
+      <c r="E91" s="7">
         <v>2.5812542199999999</v>
       </c>
-      <c r="F91" s="12">
+      <c r="F91" s="8">
         <v>261.88150000000002</v>
       </c>
-      <c r="G91" s="11">
+      <c r="G91" s="7">
         <v>2.5123553099999998</v>
       </c>
-      <c r="H91" s="12">
+      <c r="H91" s="8">
         <v>301.37509999999997</v>
       </c>
       <c r="I91" s="7"/>
@@ -18399,16 +18408,16 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92" s="3"/>
       <c r="D92" s="5"/>
-      <c r="E92" s="9">
+      <c r="E92" s="4">
         <v>2.5688286900000001</v>
       </c>
-      <c r="F92" s="10">
+      <c r="F92" s="5">
         <v>264.69159999999999</v>
       </c>
-      <c r="G92" s="9">
+      <c r="G92" s="4">
         <v>2.65181164</v>
       </c>
-      <c r="H92" s="10">
+      <c r="H92" s="5">
         <v>304.50639999999999</v>
       </c>
       <c r="I92" s="4"/>
@@ -18417,16 +18426,16 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93" s="6"/>
       <c r="D93" s="8"/>
-      <c r="E93" s="11">
+      <c r="E93" s="7">
         <v>2.5105296300000002</v>
       </c>
-      <c r="F93" s="12">
+      <c r="F93" s="8">
         <v>267.74169999999998</v>
       </c>
-      <c r="G93" s="11">
+      <c r="G93" s="7">
         <v>2.4480258699999999</v>
       </c>
-      <c r="H93" s="12">
+      <c r="H93" s="8">
         <v>307.7029</v>
       </c>
       <c r="I93" s="7"/>
@@ -18435,16 +18444,16 @@
     <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94" s="3"/>
       <c r="D94" s="5"/>
-      <c r="E94" s="9">
+      <c r="E94" s="4">
         <v>2.5143823300000001</v>
       </c>
-      <c r="F94" s="10">
+      <c r="F94" s="5">
         <v>270.7176</v>
       </c>
-      <c r="G94" s="9">
+      <c r="G94" s="4">
         <v>2.58389326</v>
       </c>
-      <c r="H94" s="10">
+      <c r="H94" s="5">
         <v>310.70260000000002</v>
       </c>
       <c r="I94" s="4"/>
@@ -18453,16 +18462,16 @@
     <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95" s="6"/>
       <c r="D95" s="8"/>
-      <c r="E95" s="11">
+      <c r="E95" s="7">
         <v>2.4495180699999999</v>
       </c>
-      <c r="F95" s="12">
+      <c r="F95" s="8">
         <v>273.822</v>
       </c>
-      <c r="G95" s="11">
+      <c r="G95" s="7">
         <v>2.39521622</v>
       </c>
-      <c r="H95" s="12">
+      <c r="H95" s="8">
         <v>313.88200000000001</v>
       </c>
       <c r="I95" s="7"/>
@@ -18471,16 +18480,16 @@
     <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96" s="3"/>
       <c r="D96" s="5"/>
-      <c r="E96" s="9">
+      <c r="E96" s="4">
         <v>2.4500840099999999</v>
       </c>
-      <c r="F96" s="10">
+      <c r="F96" s="5">
         <v>276.72449999999998</v>
       </c>
-      <c r="G96" s="9">
+      <c r="G96" s="4">
         <v>2.52116132</v>
       </c>
-      <c r="H96" s="10">
+      <c r="H96" s="5">
         <v>316.92809999999997</v>
       </c>
       <c r="I96" s="4"/>
@@ -18489,16 +18498,16 @@
     <row r="97" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A97" s="6"/>
       <c r="D97" s="8"/>
-      <c r="E97" s="11">
+      <c r="E97" s="7">
         <v>2.3921346699999999</v>
       </c>
-      <c r="F97" s="12">
+      <c r="F97" s="8">
         <v>279.66300000000001</v>
       </c>
-      <c r="G97" s="11">
+      <c r="G97" s="7">
         <v>2.3380815899999998</v>
       </c>
-      <c r="H97" s="12">
+      <c r="H97" s="8">
         <v>320.08150000000001</v>
       </c>
       <c r="I97" s="7"/>
@@ -18507,16 +18516,16 @@
     <row r="98" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A98" s="3"/>
       <c r="D98" s="5"/>
-      <c r="E98" s="9">
+      <c r="E98" s="4">
         <v>2.38847919</v>
       </c>
-      <c r="F98" s="10">
+      <c r="F98" s="5">
         <v>282.51330000000002</v>
       </c>
-      <c r="G98" s="9">
+      <c r="G98" s="4">
         <v>2.4594175300000001</v>
       </c>
-      <c r="H98" s="10">
+      <c r="H98" s="5">
         <v>323.28149999999999</v>
       </c>
       <c r="I98" s="4"/>
@@ -18525,16 +18534,16 @@
     <row r="99" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A99" s="6"/>
       <c r="D99" s="8"/>
-      <c r="E99" s="11">
+      <c r="E99" s="7">
         <v>2.3336508299999998</v>
       </c>
-      <c r="F99" s="12">
+      <c r="F99" s="8">
         <v>285.57049999999998</v>
       </c>
-      <c r="G99" s="11">
+      <c r="G99" s="7">
         <v>2.2807811</v>
       </c>
-      <c r="H99" s="12">
+      <c r="H99" s="8">
         <v>326.33530000000002</v>
       </c>
       <c r="I99" s="7"/>
@@ -18543,16 +18552,16 @@
     <row r="100" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A100" s="3"/>
       <c r="D100" s="5"/>
-      <c r="E100" s="9">
+      <c r="E100" s="4">
         <v>2.33819175</v>
       </c>
-      <c r="F100" s="10">
+      <c r="F100" s="5">
         <v>288.47329999999999</v>
       </c>
-      <c r="G100" s="9">
+      <c r="G100" s="4">
         <v>2.4037378199999999</v>
       </c>
-      <c r="H100" s="10">
+      <c r="H100" s="5">
         <v>329.28879999999998</v>
       </c>
       <c r="I100" s="4"/>
@@ -18561,16 +18570,16 @@
     <row r="101" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A101" s="6"/>
       <c r="D101" s="8"/>
-      <c r="E101" s="11">
+      <c r="E101" s="7">
         <v>2.27812123</v>
       </c>
-      <c r="F101" s="12">
+      <c r="F101" s="8">
         <v>291.49079999999998</v>
       </c>
-      <c r="G101" s="11">
+      <c r="G101" s="7">
         <v>2.23075241</v>
       </c>
-      <c r="H101" s="12">
+      <c r="H101" s="8">
         <v>332.35789999999997</v>
       </c>
       <c r="I101" s="7"/>
@@ -18579,16 +18588,16 @@
     <row r="102" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A102" s="3"/>
       <c r="D102" s="5"/>
-      <c r="E102" s="9">
+      <c r="E102" s="4">
         <v>2.2826118200000001</v>
       </c>
-      <c r="F102" s="10">
+      <c r="F102" s="5">
         <v>294.34309999999999</v>
       </c>
-      <c r="G102" s="9">
+      <c r="G102" s="4">
         <v>2.3486682000000001</v>
       </c>
-      <c r="H102" s="10">
+      <c r="H102" s="5">
         <v>335.30430000000001</v>
       </c>
       <c r="I102" s="4"/>
@@ -18597,16 +18606,16 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A103" s="6"/>
       <c r="D103" s="8"/>
-      <c r="E103" s="11">
+      <c r="E103" s="7">
         <v>2.22152912</v>
       </c>
-      <c r="F103" s="12">
+      <c r="F103" s="8">
         <v>297.18610000000001</v>
       </c>
-      <c r="G103" s="11">
+      <c r="G103" s="7">
         <v>2.1804756699999999</v>
       </c>
-      <c r="H103" s="12">
+      <c r="H103" s="8">
         <v>338.39519999999999</v>
       </c>
       <c r="I103" s="7"/>
@@ -18615,16 +18624,16 @@
     <row r="104" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A104" s="3"/>
       <c r="D104" s="5"/>
-      <c r="E104" s="9">
+      <c r="E104" s="4">
         <v>2.23284612</v>
       </c>
-      <c r="F104" s="10">
+      <c r="F104" s="5">
         <v>300.20800000000003</v>
       </c>
-      <c r="G104" s="9">
+      <c r="G104" s="4">
         <v>2.29459195</v>
       </c>
-      <c r="H104" s="10">
+      <c r="H104" s="5">
         <v>341.35939999999999</v>
       </c>
       <c r="I104" s="4"/>
@@ -18633,16 +18642,16 @@
     <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105" s="6"/>
       <c r="D105" s="8"/>
-      <c r="E105" s="11">
+      <c r="E105" s="7">
         <v>2.1715368800000001</v>
       </c>
-      <c r="F105" s="12">
+      <c r="F105" s="8">
         <v>303.1515</v>
       </c>
-      <c r="G105" s="11">
+      <c r="G105" s="7">
         <v>2.1254095899999998</v>
       </c>
-      <c r="H105" s="12">
+      <c r="H105" s="8">
         <v>344.28140000000002</v>
       </c>
       <c r="I105" s="7"/>
@@ -18651,16 +18660,16 @@
     <row r="106" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A106" s="3"/>
       <c r="D106" s="5"/>
-      <c r="E106" s="9">
+      <c r="E106" s="4">
         <v>2.1862819</v>
       </c>
-      <c r="F106" s="10">
+      <c r="F106" s="5">
         <v>306.20310000000001</v>
       </c>
-      <c r="G106" s="9">
+      <c r="G106" s="4">
         <v>2.2424233899999999</v>
       </c>
-      <c r="H106" s="10">
+      <c r="H106" s="5">
         <v>347.255</v>
       </c>
       <c r="I106" s="4"/>
@@ -18669,16 +18678,16 @@
     <row r="107" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A107" s="6"/>
       <c r="D107" s="8"/>
-      <c r="E107" s="11">
+      <c r="E107" s="7">
         <v>2.1225212299999998</v>
       </c>
-      <c r="F107" s="12">
+      <c r="F107" s="8">
         <v>309.15609999999998</v>
       </c>
-      <c r="G107" s="11">
+      <c r="G107" s="7">
         <v>2.07566023</v>
       </c>
-      <c r="H107" s="12">
+      <c r="H107" s="8">
         <v>350.33730000000003</v>
       </c>
       <c r="I107" s="7"/>
@@ -18687,16 +18696,16 @@
     <row r="108" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A108" s="3"/>
       <c r="D108" s="5"/>
-      <c r="E108" s="9">
+      <c r="E108" s="4">
         <v>2.1376050900000001</v>
       </c>
-      <c r="F108" s="10">
+      <c r="F108" s="5">
         <v>312.03629999999998</v>
       </c>
-      <c r="G108" s="9">
+      <c r="G108" s="4">
         <v>2.1954449899999999</v>
       </c>
-      <c r="H108" s="10">
+      <c r="H108" s="5">
         <v>353.44869999999997</v>
       </c>
       <c r="I108" s="4"/>
@@ -18705,16 +18714,16 @@
     <row r="109" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A109" s="6"/>
       <c r="D109" s="8"/>
-      <c r="E109" s="11">
+      <c r="E109" s="7">
         <v>2.07641622</v>
       </c>
-      <c r="F109" s="12">
+      <c r="F109" s="8">
         <v>315.01440000000002</v>
       </c>
-      <c r="G109" s="11">
+      <c r="G109" s="7">
         <v>2.0286025300000001</v>
       </c>
-      <c r="H109" s="12">
+      <c r="H109" s="8">
         <v>356.73160000000001</v>
       </c>
       <c r="I109" s="7"/>
@@ -18723,16 +18732,16 @@
     <row r="110" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A110" s="3"/>
       <c r="D110" s="5"/>
-      <c r="E110" s="9">
+      <c r="E110" s="4">
         <v>2.0941907300000002</v>
       </c>
-      <c r="F110" s="10">
+      <c r="F110" s="5">
         <v>318.09249999999997</v>
       </c>
-      <c r="G110" s="9">
+      <c r="G110" s="4">
         <v>2.1491991100000001</v>
       </c>
-      <c r="H110" s="10">
+      <c r="H110" s="5">
         <v>359.56279999999998</v>
       </c>
       <c r="I110" s="4"/>
@@ -18741,16 +18750,16 @@
     <row r="111" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A111" s="6"/>
       <c r="D111" s="8"/>
-      <c r="E111" s="11">
+      <c r="E111" s="7">
         <v>2.0312434700000002</v>
       </c>
-      <c r="F111" s="12">
+      <c r="F111" s="8">
         <v>321.13319999999999</v>
       </c>
-      <c r="G111" s="11">
+      <c r="G111" s="7">
         <v>1.9858882600000001</v>
       </c>
-      <c r="H111" s="12">
+      <c r="H111" s="8">
         <v>362.6678</v>
       </c>
       <c r="I111" s="7"/>
@@ -18759,2178 +18768,2178 @@
     <row r="112" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A112" s="3"/>
       <c r="D112" s="5"/>
-      <c r="E112" s="9">
+      <c r="E112" s="4">
         <v>2.0525645099999998</v>
       </c>
-      <c r="F112" s="10">
+      <c r="F112" s="5">
         <v>324.33530000000002</v>
       </c>
-      <c r="G112" s="9">
+      <c r="G112" s="4">
         <v>2.1056578799999999</v>
       </c>
-      <c r="H112" s="10">
+      <c r="H112" s="5">
         <v>365.95460000000003</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A113" s="6"/>
       <c r="D113" s="8"/>
-      <c r="E113" s="11">
+      <c r="E113" s="7">
         <v>1.9849612599999999</v>
       </c>
-      <c r="F113" s="12">
+      <c r="F113" s="8">
         <v>327.29289999999997</v>
       </c>
-      <c r="G113" s="11">
+      <c r="G113" s="7">
         <v>1.94633883</v>
       </c>
-      <c r="H113" s="12">
+      <c r="H113" s="8">
         <v>369.00470000000001</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A114" s="3"/>
       <c r="D114" s="5"/>
-      <c r="E114" s="9">
+      <c r="E114" s="4">
         <v>2.0173433099999998</v>
       </c>
-      <c r="F114" s="10">
+      <c r="F114" s="5">
         <v>330.53550000000001</v>
       </c>
-      <c r="G114" s="9">
+      <c r="G114" s="4">
         <v>2.0643099500000002</v>
       </c>
-      <c r="H114" s="10">
+      <c r="H114" s="5">
         <v>371.9359</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A115" s="6"/>
       <c r="D115" s="8"/>
-      <c r="E115" s="11">
+      <c r="E115" s="7">
         <v>1.9440374600000001</v>
       </c>
-      <c r="F115" s="12">
+      <c r="F115" s="8">
         <v>333.50970000000001</v>
       </c>
-      <c r="G115" s="11">
+      <c r="G115" s="7">
         <v>1.9074326399999999</v>
       </c>
-      <c r="H115" s="12">
+      <c r="H115" s="8">
         <v>375.00310000000002</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116" s="3"/>
       <c r="D116" s="5"/>
-      <c r="E116" s="9">
+      <c r="E116" s="4">
         <v>1.97500063</v>
       </c>
-      <c r="F116" s="10">
+      <c r="F116" s="5">
         <v>336.48149999999998</v>
       </c>
-      <c r="G116" s="9">
+      <c r="G116" s="4">
         <v>2.0211164199999998</v>
       </c>
-      <c r="H116" s="10">
+      <c r="H116" s="5">
         <v>378.08300000000003</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A117" s="6"/>
       <c r="D117" s="8"/>
-      <c r="E117" s="11">
+      <c r="E117" s="7">
         <v>1.90634244</v>
       </c>
-      <c r="F117" s="12">
+      <c r="F117" s="8">
         <v>339.71839999999997</v>
       </c>
-      <c r="G117" s="11">
+      <c r="G117" s="7">
         <v>1.8699473799999999</v>
       </c>
-      <c r="H117" s="12">
+      <c r="H117" s="8">
         <v>381.32249999999999</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A118" s="3"/>
       <c r="D118" s="5"/>
-      <c r="E118" s="9">
+      <c r="E118" s="4">
         <v>1.93718049</v>
       </c>
-      <c r="F118" s="10">
+      <c r="F118" s="5">
         <v>342.9391</v>
       </c>
-      <c r="G118" s="9">
+      <c r="G118" s="4">
         <v>1.9810607499999999</v>
       </c>
-      <c r="H118" s="10">
+      <c r="H118" s="5">
         <v>384.4402</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A119" s="6"/>
       <c r="D119" s="8"/>
-      <c r="E119" s="11">
+      <c r="E119" s="7">
         <v>1.8689751400000001</v>
       </c>
-      <c r="F119" s="12">
+      <c r="F119" s="8">
         <v>345.89460000000003</v>
       </c>
-      <c r="G119" s="11">
+      <c r="G119" s="7">
         <v>1.8366795600000001</v>
       </c>
-      <c r="H119" s="12">
+      <c r="H119" s="8">
         <v>387.77760000000001</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A120" s="3"/>
       <c r="D120" s="5"/>
-      <c r="E120" s="9">
+      <c r="E120" s="4">
         <v>1.8991251899999999</v>
       </c>
-      <c r="F120" s="10">
+      <c r="F120" s="5">
         <v>348.90199999999999</v>
       </c>
-      <c r="G120" s="9">
+      <c r="G120" s="4">
         <v>1.94190057</v>
       </c>
-      <c r="H120" s="10">
+      <c r="H120" s="5">
         <v>390.85309999999998</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A121" s="6"/>
       <c r="D121" s="8"/>
-      <c r="E121" s="11">
+      <c r="E121" s="7">
         <v>1.8328002400000001</v>
       </c>
-      <c r="F121" s="12">
+      <c r="F121" s="8">
         <v>351.9907</v>
       </c>
-      <c r="G121" s="11">
+      <c r="G121" s="7">
         <v>1.8010065399999999</v>
       </c>
-      <c r="H121" s="12">
+      <c r="H121" s="8">
         <v>393.90190000000001</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A122" s="3"/>
       <c r="D122" s="5"/>
-      <c r="E122" s="9">
+      <c r="E122" s="4">
         <v>1.86198573</v>
       </c>
-      <c r="F122" s="10">
+      <c r="F122" s="5">
         <v>355.07549999999998</v>
       </c>
-      <c r="G122" s="9">
+      <c r="G122" s="4">
         <v>1.9035350499999999</v>
       </c>
-      <c r="H122" s="10">
+      <c r="H122" s="5">
         <v>396.99549999999999</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A123" s="6"/>
       <c r="D123" s="8"/>
-      <c r="E123" s="11">
+      <c r="E123" s="7">
         <v>1.79350096</v>
       </c>
-      <c r="F123" s="12">
+      <c r="F123" s="8">
         <v>358.3125</v>
       </c>
-      <c r="G123" s="11">
+      <c r="G123" s="7">
         <v>1.7618145700000001</v>
       </c>
-      <c r="H123" s="12">
+      <c r="H123" s="8">
         <v>400.17669999999998</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A124" s="3"/>
       <c r="D124" s="5"/>
-      <c r="E124" s="9">
+      <c r="E124" s="4">
         <v>1.82465594</v>
       </c>
-      <c r="F124" s="10">
+      <c r="F124" s="5">
         <v>361.80180000000001</v>
       </c>
-      <c r="G124" s="9">
+      <c r="G124" s="4">
         <v>1.8679461900000001</v>
       </c>
-      <c r="H124" s="10">
+      <c r="H124" s="5">
         <v>403.54899999999998</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A125" s="6"/>
       <c r="D125" s="8"/>
-      <c r="E125" s="11">
+      <c r="E125" s="7">
         <v>1.7588488499999999</v>
       </c>
-      <c r="F125" s="12">
+      <c r="F125" s="8">
         <v>365.04759999999999</v>
       </c>
-      <c r="G125" s="11">
+      <c r="G125" s="7">
         <v>1.7282605099999999</v>
       </c>
-      <c r="H125" s="12">
+      <c r="H125" s="8">
         <v>406.9896</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126" s="3"/>
       <c r="D126" s="5"/>
-      <c r="E126" s="9">
+      <c r="E126" s="4">
         <v>1.7948198</v>
       </c>
-      <c r="F126" s="10">
+      <c r="F126" s="5">
         <v>367.93869999999998</v>
       </c>
-      <c r="G126" s="9">
+      <c r="G126" s="4">
         <v>1.8348850800000001</v>
       </c>
-      <c r="H126" s="10">
+      <c r="H126" s="5">
         <v>410.03829999999999</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127" s="6"/>
       <c r="D127" s="8"/>
-      <c r="E127" s="11">
+      <c r="E127" s="7">
         <v>1.72486988</v>
       </c>
-      <c r="F127" s="12">
+      <c r="F127" s="8">
         <v>370.91809999999998</v>
       </c>
-      <c r="G127" s="11">
+      <c r="G127" s="7">
         <v>1.6950039699999999</v>
       </c>
-      <c r="H127" s="12">
+      <c r="H127" s="8">
         <v>413.05900000000003</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A128" s="3"/>
       <c r="D128" s="5"/>
-      <c r="E128" s="9">
+      <c r="E128" s="4">
         <v>1.7618070699999999</v>
       </c>
-      <c r="F128" s="10">
+      <c r="F128" s="5">
         <v>374.06400000000002</v>
       </c>
-      <c r="G128" s="9">
+      <c r="G128" s="4">
         <v>1.7998465800000001</v>
       </c>
-      <c r="H128" s="10">
+      <c r="H128" s="5">
         <v>416.2133</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A129" s="6"/>
       <c r="D129" s="8"/>
-      <c r="E129" s="11">
+      <c r="E129" s="7">
         <v>1.6924460699999999</v>
       </c>
-      <c r="F129" s="12">
+      <c r="F129" s="8">
         <v>377.05180000000001</v>
       </c>
-      <c r="G129" s="11">
+      <c r="G129" s="7">
         <v>1.66159536</v>
       </c>
-      <c r="H129" s="12">
+      <c r="H129" s="8">
         <v>419.60980000000001</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A130" s="3"/>
       <c r="D130" s="5"/>
-      <c r="E130" s="9">
+      <c r="E130" s="4">
         <v>1.7303514099999999</v>
       </c>
-      <c r="F130" s="10">
+      <c r="F130" s="5">
         <v>379.90089999999998</v>
       </c>
-      <c r="G130" s="9">
+      <c r="G130" s="4">
         <v>1.76634672</v>
       </c>
-      <c r="H130" s="10">
+      <c r="H130" s="5">
         <v>425.07979999999998</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A131" s="6"/>
       <c r="D131" s="8"/>
-      <c r="E131" s="11">
+      <c r="E131" s="7">
         <v>1.6635462299999999</v>
       </c>
-      <c r="F131" s="12">
+      <c r="F131" s="8">
         <v>382.95569999999998</v>
       </c>
-      <c r="G131" s="11">
+      <c r="G131" s="7">
         <v>1.6342806999999999</v>
       </c>
-      <c r="H131" s="12">
+      <c r="H131" s="8">
         <v>428.10379999999998</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A132" s="3"/>
       <c r="D132" s="5"/>
-      <c r="E132" s="9">
+      <c r="E132" s="4">
         <v>1.7015405299999999</v>
       </c>
-      <c r="F132" s="10">
+      <c r="F132" s="5">
         <v>386.00540000000001</v>
       </c>
-      <c r="G132" s="9">
+      <c r="G132" s="4">
         <v>1.73569566</v>
       </c>
-      <c r="H132" s="10">
+      <c r="H132" s="5">
         <v>431.1995</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A133" s="6"/>
       <c r="D133" s="8"/>
-      <c r="E133" s="11">
+      <c r="E133" s="7">
         <v>1.6339570800000001</v>
       </c>
-      <c r="F133" s="12">
+      <c r="F133" s="8">
         <v>388.80680000000001</v>
       </c>
-      <c r="G133" s="11">
+      <c r="G133" s="7">
         <v>1.6061741700000001</v>
       </c>
-      <c r="H133" s="12">
+      <c r="H133" s="8">
         <v>434.32729999999998</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A134" s="3"/>
       <c r="D134" s="5"/>
-      <c r="E134" s="9">
+      <c r="E134" s="4">
         <v>1.66905295</v>
       </c>
-      <c r="F134" s="10">
+      <c r="F134" s="5">
         <v>391.80380000000002</v>
       </c>
-      <c r="G134" s="9">
+      <c r="G134" s="4">
         <v>1.7040689600000001</v>
       </c>
-      <c r="H134" s="10">
+      <c r="H134" s="5">
         <v>437.32229999999998</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135" s="6"/>
       <c r="D135" s="8"/>
-      <c r="E135" s="11">
+      <c r="E135" s="7">
         <v>1.60612607</v>
       </c>
-      <c r="F135" s="12">
+      <c r="F135" s="8">
         <v>394.8245</v>
       </c>
-      <c r="G135" s="11">
+      <c r="G135" s="7">
         <v>1.57845357</v>
       </c>
-      <c r="H135" s="12">
+      <c r="H135" s="8">
         <v>440.68830000000003</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136" s="3"/>
       <c r="D136" s="5"/>
-      <c r="E136" s="9">
+      <c r="E136" s="4">
         <v>1.6411845199999999</v>
       </c>
-      <c r="F136" s="10">
+      <c r="F136" s="5">
         <v>397.83449999999999</v>
       </c>
-      <c r="G136" s="9">
+      <c r="G136" s="4">
         <v>1.67340903</v>
       </c>
-      <c r="H136" s="10">
+      <c r="H136" s="5">
         <v>443.80110000000002</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A137" s="6"/>
       <c r="D137" s="8"/>
-      <c r="E137" s="11">
+      <c r="E137" s="7">
         <v>1.5768939799999999</v>
       </c>
-      <c r="F137" s="12">
+      <c r="F137" s="8">
         <v>400.93680000000001</v>
       </c>
-      <c r="G137" s="11">
+      <c r="G137" s="7">
         <v>1.55115647</v>
       </c>
-      <c r="H137" s="12">
+      <c r="H137" s="8">
         <v>446.81470000000002</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A138" s="3"/>
       <c r="D138" s="5"/>
-      <c r="E138" s="9">
+      <c r="E138" s="4">
         <v>1.6131403600000001</v>
       </c>
-      <c r="F138" s="10">
+      <c r="F138" s="5">
         <v>403.83789999999999</v>
       </c>
-      <c r="G138" s="9">
+      <c r="G138" s="4">
         <v>1.64514279</v>
       </c>
-      <c r="H138" s="10">
+      <c r="H138" s="5">
         <v>450.00749999999999</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A139" s="6"/>
       <c r="D139" s="8"/>
-      <c r="E139" s="11">
+      <c r="E139" s="7">
         <v>1.5499605400000001</v>
       </c>
-      <c r="F139" s="12">
+      <c r="F139" s="8">
         <v>406.87299999999999</v>
       </c>
-      <c r="G139" s="11">
+      <c r="G139" s="7">
         <v>1.5215923499999999</v>
       </c>
-      <c r="H139" s="12">
+      <c r="H139" s="8">
         <v>453.0634</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A140" s="3"/>
       <c r="D140" s="5"/>
-      <c r="E140" s="9">
+      <c r="E140" s="4">
         <v>1.58224952</v>
       </c>
-      <c r="F140" s="10">
+      <c r="F140" s="5">
         <v>409.83260000000001</v>
       </c>
-      <c r="G140" s="9">
+      <c r="G140" s="4">
         <v>1.6156143300000001</v>
       </c>
-      <c r="H140" s="10">
+      <c r="H140" s="5">
         <v>455.96019999999999</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A141" s="6"/>
       <c r="D141" s="8"/>
-      <c r="E141" s="11">
+      <c r="E141" s="7">
         <v>1.52135525</v>
       </c>
-      <c r="F141" s="12">
+      <c r="F141" s="8">
         <v>412.82670000000002</v>
       </c>
-      <c r="G141" s="11">
+      <c r="G141" s="7">
         <v>1.4989361299999999</v>
       </c>
-      <c r="H141" s="12">
+      <c r="H141" s="8">
         <v>459.03309999999999</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A142" s="3"/>
       <c r="D142" s="5"/>
-      <c r="E142" s="9">
+      <c r="E142" s="4">
         <v>1.55860106</v>
       </c>
-      <c r="F142" s="10">
+      <c r="F142" s="5">
         <v>416.024</v>
       </c>
-      <c r="G142" s="9">
+      <c r="G142" s="4">
         <v>1.5888822499999999</v>
       </c>
-      <c r="H142" s="10">
+      <c r="H142" s="5">
         <v>462.02460000000002</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A143" s="6"/>
       <c r="D143" s="8"/>
-      <c r="E143" s="11">
+      <c r="E143" s="7">
         <v>1.4949802299999999</v>
       </c>
-      <c r="F143" s="12">
+      <c r="F143" s="8">
         <v>419.04840000000002</v>
       </c>
-      <c r="G143" s="11">
+      <c r="G143" s="7">
         <v>1.47231036</v>
       </c>
-      <c r="H143" s="12">
+      <c r="H143" s="8">
         <v>464.96559999999999</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A144" s="3"/>
       <c r="D144" s="5"/>
-      <c r="E144" s="9">
+      <c r="E144" s="4">
         <v>1.5314033199999999</v>
       </c>
-      <c r="F144" s="10">
+      <c r="F144" s="5">
         <v>422.03140000000002</v>
       </c>
-      <c r="G144" s="9">
+      <c r="G144" s="4">
         <v>1.56150835</v>
       </c>
-      <c r="H144" s="10">
+      <c r="H144" s="5">
         <v>468.19940000000003</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A145" s="6"/>
       <c r="D145" s="8"/>
-      <c r="E145" s="11">
+      <c r="E145" s="7">
         <v>1.4698360100000001</v>
       </c>
-      <c r="F145" s="12">
+      <c r="F145" s="8">
         <v>425.16210000000001</v>
       </c>
-      <c r="G145" s="11">
+      <c r="G145" s="7">
         <v>1.4456620099999999</v>
       </c>
-      <c r="H145" s="12">
+      <c r="H145" s="8">
         <v>471.22519999999997</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A146" s="3"/>
       <c r="D146" s="5"/>
-      <c r="E146" s="9">
+      <c r="E146" s="4">
         <v>1.5079923799999999</v>
       </c>
-      <c r="F146" s="10">
+      <c r="F146" s="5">
         <v>428.24689999999998</v>
       </c>
-      <c r="G146" s="9">
+      <c r="G146" s="4">
         <v>1.53493762</v>
       </c>
-      <c r="H146" s="10">
+      <c r="H146" s="5">
         <v>474.22399999999999</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A147" s="6"/>
       <c r="D147" s="8"/>
-      <c r="E147" s="11">
+      <c r="E147" s="7">
         <v>1.44376879</v>
       </c>
-      <c r="F147" s="12">
+      <c r="F147" s="8">
         <v>431.2885</v>
       </c>
-      <c r="G147" s="11">
+      <c r="G147" s="7">
         <v>1.41884374</v>
       </c>
-      <c r="H147" s="12">
+      <c r="H147" s="8">
         <v>477.20150000000001</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A148" s="3"/>
       <c r="D148" s="5"/>
-      <c r="E148" s="9">
+      <c r="E148" s="4">
         <v>1.4825966399999999</v>
       </c>
-      <c r="F148" s="10">
+      <c r="F148" s="5">
         <v>434.28309999999999</v>
       </c>
-      <c r="G148" s="9">
+      <c r="G148" s="4">
         <v>1.5100847799999999</v>
       </c>
-      <c r="H148" s="10">
+      <c r="H148" s="5">
         <v>480.17540000000002</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A149" s="6"/>
       <c r="D149" s="8"/>
-      <c r="E149" s="11">
+      <c r="E149" s="7">
         <v>1.4185923</v>
       </c>
-      <c r="F149" s="12">
+      <c r="F149" s="8">
         <v>437.3399</v>
       </c>
-      <c r="G149" s="11">
+      <c r="G149" s="7">
         <v>1.39836987</v>
       </c>
-      <c r="H149" s="12">
+      <c r="H149" s="8">
         <v>483.49400000000003</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A150" s="3"/>
       <c r="D150" s="5"/>
-      <c r="E150" s="9">
+      <c r="E150" s="4">
         <v>1.4590447799999999</v>
       </c>
-      <c r="F150" s="10">
+      <c r="F150" s="5">
         <v>440.35610000000003</v>
       </c>
-      <c r="G150" s="9">
+      <c r="G150" s="4">
         <v>1.48614041</v>
       </c>
-      <c r="H150" s="10">
+      <c r="H150" s="5">
         <v>486.46820000000002</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A151" s="6"/>
       <c r="D151" s="8"/>
-      <c r="E151" s="11">
+      <c r="E151" s="7">
         <v>1.3970979699999999</v>
       </c>
-      <c r="F151" s="12">
+      <c r="F151" s="8">
         <v>443.40929999999997</v>
       </c>
-      <c r="G151" s="11">
+      <c r="G151" s="7">
         <v>1.3762432899999999</v>
       </c>
-      <c r="H151" s="12">
+      <c r="H151" s="8">
         <v>489.6986</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A152" s="3"/>
       <c r="D152" s="5"/>
-      <c r="E152" s="9">
+      <c r="E152" s="4">
         <v>1.4361893699999999</v>
       </c>
-      <c r="F152" s="10">
+      <c r="F152" s="5">
         <v>446.57670000000002</v>
       </c>
-      <c r="G152" s="9">
+      <c r="G152" s="4">
         <v>1.46154297</v>
       </c>
-      <c r="H152" s="10">
+      <c r="H152" s="5">
         <v>492.88690000000003</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A153" s="6"/>
       <c r="D153" s="8"/>
-      <c r="E153" s="11">
+      <c r="E153" s="7">
         <v>1.3748515299999999</v>
       </c>
-      <c r="F153" s="12">
+      <c r="F153" s="8">
         <v>449.79739999999998</v>
       </c>
-      <c r="G153" s="11">
+      <c r="G153" s="7">
         <v>1.35525008</v>
       </c>
-      <c r="H153" s="12">
+      <c r="H153" s="8">
         <v>496.06970000000001</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A154" s="3"/>
       <c r="D154" s="5"/>
-      <c r="E154" s="9">
+      <c r="E154" s="4">
         <v>1.41460487</v>
       </c>
-      <c r="F154" s="10">
+      <c r="F154" s="5">
         <v>453.01130000000001</v>
       </c>
-      <c r="G154" s="9">
+      <c r="G154" s="4">
         <v>1.43815132</v>
       </c>
-      <c r="H154" s="10">
+      <c r="H154" s="5">
         <v>499.19439999999997</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A155" s="6"/>
       <c r="D155" s="8"/>
-      <c r="E155" s="11">
+      <c r="E155" s="7">
         <v>1.3505266300000001</v>
       </c>
-      <c r="F155" s="12">
+      <c r="F155" s="8">
         <v>456.12959999999998</v>
       </c>
-      <c r="G155" s="11">
+      <c r="G155" s="7">
         <v>1.33131193</v>
       </c>
-      <c r="H155" s="12">
+      <c r="H155" s="8">
         <v>502.32889999999998</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A156" s="3"/>
       <c r="D156" s="5"/>
-      <c r="E156" s="9">
+      <c r="E156" s="4">
         <v>1.3915748100000001</v>
       </c>
-      <c r="F156" s="10">
+      <c r="F156" s="5">
         <v>459.40550000000002</v>
       </c>
-      <c r="G156" s="9">
+      <c r="G156" s="4">
         <v>1.4154529300000001</v>
       </c>
-      <c r="H156" s="10">
+      <c r="H156" s="5">
         <v>505.5514</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A157" s="6"/>
       <c r="D157" s="8"/>
-      <c r="E157" s="11">
+      <c r="E157" s="7">
         <v>1.3278397200000001</v>
       </c>
-      <c r="F157" s="12">
+      <c r="F157" s="8">
         <v>462.44869999999997</v>
       </c>
-      <c r="G157" s="11">
+      <c r="G157" s="7">
         <v>1.3105721400000001</v>
       </c>
-      <c r="H157" s="12">
+      <c r="H157" s="8">
         <v>509.0763</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A158" s="3"/>
       <c r="D158" s="5"/>
-      <c r="E158" s="9">
+      <c r="E158" s="4">
         <v>1.36800353</v>
       </c>
-      <c r="F158" s="10">
+      <c r="F158" s="5">
         <v>465.51010000000002</v>
       </c>
-      <c r="G158" s="9">
+      <c r="G158" s="4">
         <v>1.39282766</v>
       </c>
-      <c r="H158" s="10">
+      <c r="H158" s="5">
         <v>512.2296</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A159" s="6"/>
       <c r="D159" s="8"/>
-      <c r="E159" s="11">
+      <c r="E159" s="7">
         <v>1.3080131500000001</v>
       </c>
-      <c r="F159" s="12">
+      <c r="F159" s="8">
         <v>468.58460000000002</v>
       </c>
-      <c r="G159" s="11">
+      <c r="G159" s="7">
         <v>1.2891183100000001</v>
       </c>
-      <c r="H159" s="12">
+      <c r="H159" s="8">
         <v>515.62429999999995</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A160" s="3"/>
       <c r="D160" s="5"/>
-      <c r="E160" s="9">
+      <c r="E160" s="4">
         <v>1.3472112700000001</v>
       </c>
-      <c r="F160" s="10">
+      <c r="F160" s="5">
         <v>471.55860000000001</v>
       </c>
-      <c r="G160" s="9">
+      <c r="G160" s="4">
         <v>1.37089982</v>
       </c>
-      <c r="H160" s="10">
+      <c r="H160" s="5">
         <v>518.71950000000004</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A161" s="6"/>
       <c r="D161" s="8"/>
-      <c r="E161" s="11">
+      <c r="E161" s="7">
         <v>1.2873343399999999</v>
       </c>
-      <c r="F161" s="12">
+      <c r="F161" s="8">
         <v>474.54930000000002</v>
       </c>
-      <c r="G161" s="11">
+      <c r="G161" s="7">
         <v>1.2696714200000001</v>
       </c>
-      <c r="H161" s="12">
+      <c r="H161" s="8">
         <v>521.62609999999995</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A162" s="3"/>
       <c r="D162" s="5"/>
-      <c r="E162" s="9">
+      <c r="E162" s="4">
         <v>1.3285234100000001</v>
       </c>
-      <c r="F162" s="10">
+      <c r="F162" s="5">
         <v>477.46269999999998</v>
       </c>
-      <c r="G162" s="9">
+      <c r="G162" s="4">
         <v>1.34861981</v>
       </c>
-      <c r="H162" s="10">
+      <c r="H162" s="5">
         <v>524.59090000000003</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A163" s="6"/>
       <c r="D163" s="8"/>
-      <c r="E163" s="11">
+      <c r="E163" s="7">
         <v>1.26551189</v>
       </c>
-      <c r="F163" s="12">
+      <c r="F163" s="8">
         <v>480.35950000000003</v>
       </c>
-      <c r="G163" s="11">
+      <c r="G163" s="7">
         <v>1.2529288199999999</v>
       </c>
-      <c r="H163" s="12">
+      <c r="H163" s="8">
         <v>527.76400000000001</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A164" s="3"/>
       <c r="D164" s="5"/>
-      <c r="E164" s="9">
+      <c r="E164" s="4">
         <v>1.30819613</v>
       </c>
-      <c r="F164" s="10">
+      <c r="F164" s="5">
         <v>483.38400000000001</v>
       </c>
-      <c r="G164" s="9">
+      <c r="G164" s="4">
         <v>1.32800231</v>
       </c>
-      <c r="H164" s="10">
+      <c r="H164" s="5">
         <v>530.80020000000002</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A165" s="6"/>
       <c r="D165" s="8"/>
-      <c r="E165" s="11">
+      <c r="E165" s="7">
         <v>1.2471555400000001</v>
       </c>
-      <c r="F165" s="12">
+      <c r="F165" s="8">
         <v>486.42450000000002</v>
       </c>
-      <c r="G165" s="11">
+      <c r="G165" s="7">
         <v>1.2299202499999999</v>
       </c>
-      <c r="H165" s="12">
+      <c r="H165" s="8">
         <v>533.91229999999996</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A166" s="3"/>
       <c r="D166" s="5"/>
-      <c r="E166" s="9">
+      <c r="E166" s="4">
         <v>1.2884458700000001</v>
       </c>
-      <c r="F166" s="10">
+      <c r="F166" s="5">
         <v>489.77780000000001</v>
       </c>
-      <c r="G166" s="9">
+      <c r="G166" s="4">
         <v>1.3085324700000001</v>
       </c>
-      <c r="H166" s="10">
+      <c r="H166" s="5">
         <v>537.04510000000005</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A167" s="6"/>
       <c r="D167" s="8"/>
-      <c r="E167" s="11">
+      <c r="E167" s="7">
         <v>1.2276802600000001</v>
       </c>
-      <c r="F167" s="12">
+      <c r="F167" s="8">
         <v>492.94159999999999</v>
       </c>
-      <c r="G167" s="11">
+      <c r="G167" s="7">
         <v>1.2147089</v>
       </c>
-      <c r="H167" s="12">
+      <c r="H167" s="8">
         <v>540.14430000000004</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A168" s="3"/>
       <c r="D168" s="5"/>
-      <c r="E168" s="9">
+      <c r="E168" s="4">
         <v>1.27023087</v>
       </c>
-      <c r="F168" s="10">
+      <c r="F168" s="5">
         <v>496.01830000000001</v>
       </c>
-      <c r="G168" s="9">
+      <c r="G168" s="4">
         <v>1.28894413</v>
       </c>
-      <c r="H168" s="10">
+      <c r="H168" s="5">
         <v>543.12879999999996</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A169" s="6"/>
       <c r="D169" s="8"/>
-      <c r="E169" s="11">
+      <c r="E169" s="7">
         <v>1.2093549400000001</v>
       </c>
-      <c r="F169" s="12">
+      <c r="F169" s="8">
         <v>499.26589999999999</v>
       </c>
-      <c r="G169" s="11">
+      <c r="G169" s="7">
         <v>1.1946386</v>
       </c>
-      <c r="H169" s="12">
+      <c r="H169" s="8">
         <v>546.5213</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A170" s="3"/>
       <c r="D170" s="5"/>
-      <c r="E170" s="9">
+      <c r="E170" s="4">
         <v>1.2503128299999999</v>
       </c>
-      <c r="F170" s="10">
+      <c r="F170" s="5">
         <v>502.4461</v>
       </c>
-      <c r="G170" s="9">
+      <c r="G170" s="4">
         <v>1.2688866000000001</v>
       </c>
-      <c r="H170" s="10">
+      <c r="H170" s="5">
         <v>549.68079999999998</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A171" s="6"/>
       <c r="D171" s="8"/>
-      <c r="E171" s="11">
+      <c r="E171" s="7">
         <v>1.18931228</v>
       </c>
-      <c r="F171" s="12">
+      <c r="F171" s="8">
         <v>505.5326</v>
       </c>
-      <c r="G171" s="11">
+      <c r="G171" s="7">
         <v>1.1729660200000001</v>
       </c>
-      <c r="H171" s="12">
+      <c r="H171" s="8">
         <v>552.72180000000003</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A172" s="3"/>
       <c r="D172" s="5"/>
-      <c r="E172" s="9">
+      <c r="E172" s="4">
         <v>1.23090539</v>
       </c>
-      <c r="F172" s="10">
+      <c r="F172" s="5">
         <v>508.55700000000002</v>
       </c>
-      <c r="G172" s="9">
+      <c r="G172" s="4">
         <v>1.25039466</v>
       </c>
-      <c r="H172" s="10">
+      <c r="H172" s="5">
         <v>555.84479999999996</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A173" s="6"/>
       <c r="D173" s="8"/>
-      <c r="E173" s="11">
+      <c r="E173" s="7">
         <v>1.17158886</v>
       </c>
-      <c r="F173" s="12">
+      <c r="F173" s="8">
         <v>511.48880000000003</v>
       </c>
-      <c r="G173" s="11">
+      <c r="G173" s="7">
         <v>1.15585911</v>
       </c>
-      <c r="H173" s="12">
+      <c r="H173" s="8">
         <v>558.95759999999996</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A174" s="3"/>
       <c r="D174" s="5"/>
-      <c r="E174" s="9">
+      <c r="E174" s="4">
         <v>1.21285054</v>
       </c>
-      <c r="F174" s="10">
+      <c r="F174" s="5">
         <v>514.53539999999998</v>
       </c>
-      <c r="G174" s="9">
+      <c r="G174" s="4">
         <v>1.23134587</v>
       </c>
-      <c r="H174" s="10">
+      <c r="H174" s="5">
         <v>562.12210000000005</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A175" s="6"/>
       <c r="D175" s="8"/>
-      <c r="E175" s="11">
+      <c r="E175" s="7">
         <v>1.15458649</v>
       </c>
-      <c r="F175" s="12">
+      <c r="F175" s="8">
         <v>517.70169999999996</v>
       </c>
-      <c r="G175" s="11">
+      <c r="G175" s="7">
         <v>1.1380773399999999</v>
       </c>
-      <c r="H175" s="12">
+      <c r="H175" s="8">
         <v>565.19799999999998</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A176" s="3"/>
       <c r="D176" s="5"/>
-      <c r="E176" s="9">
+      <c r="E176" s="4">
         <v>1.19729872</v>
       </c>
-      <c r="F176" s="10">
+      <c r="F176" s="5">
         <v>521.18610000000001</v>
       </c>
-      <c r="G176" s="9">
+      <c r="G176" s="4">
         <v>1.2126602399999999</v>
       </c>
-      <c r="H176" s="10">
+      <c r="H176" s="5">
         <v>568.21990000000005</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A177" s="6"/>
       <c r="D177" s="8"/>
-      <c r="E177" s="11">
+      <c r="E177" s="7">
         <v>1.13357614</v>
       </c>
-      <c r="F177" s="12">
+      <c r="F177" s="8">
         <v>524.32360000000006</v>
       </c>
-      <c r="G177" s="11">
+      <c r="G177" s="7">
         <v>1.1207309000000001</v>
       </c>
-      <c r="H177" s="12">
+      <c r="H177" s="8">
         <v>571.29650000000004</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A178" s="3"/>
       <c r="D178" s="5"/>
-      <c r="E178" s="9">
+      <c r="E178" s="4">
         <v>1.17932653</v>
       </c>
-      <c r="F178" s="10">
+      <c r="F178" s="5">
         <v>527.52440000000001</v>
       </c>
-      <c r="G178" s="9">
+      <c r="G178" s="4">
         <v>1.1951094799999999</v>
       </c>
-      <c r="H178" s="10">
+      <c r="H178" s="5">
         <v>574.31500000000005</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A179" s="6"/>
       <c r="D179" s="8"/>
-      <c r="E179" s="11">
+      <c r="E179" s="7">
         <v>1.1162523799999999</v>
       </c>
-      <c r="F179" s="12">
+      <c r="F179" s="8">
         <v>530.55820000000006</v>
       </c>
-      <c r="G179" s="11">
+      <c r="G179" s="7">
         <v>1.10821977</v>
       </c>
-      <c r="H179" s="12">
+      <c r="H179" s="8">
         <v>577.35860000000002</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A180" s="3"/>
       <c r="D180" s="5"/>
-      <c r="E180" s="9">
+      <c r="E180" s="4">
         <v>1.16415297</v>
       </c>
-      <c r="F180" s="10">
+      <c r="F180" s="5">
         <v>533.54169999999999</v>
       </c>
-      <c r="G180" s="9">
+      <c r="G180" s="4">
         <v>1.1791096299999999</v>
       </c>
-      <c r="H180" s="10">
+      <c r="H180" s="5">
         <v>580.5027</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A181" s="6"/>
       <c r="D181" s="8"/>
-      <c r="E181" s="11">
+      <c r="E181" s="7">
         <v>1.1003134999999999</v>
       </c>
-      <c r="F181" s="12">
+      <c r="F181" s="8">
         <v>536.44129999999996</v>
       </c>
-      <c r="G181" s="11">
+      <c r="G181" s="7">
         <v>1.0897212199999999</v>
       </c>
-      <c r="H181" s="12">
+      <c r="H181" s="8">
         <v>583.56349999999998</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A182" s="3"/>
       <c r="D182" s="5"/>
-      <c r="E182" s="9">
+      <c r="E182" s="4">
         <v>1.1472496000000001</v>
       </c>
-      <c r="F182" s="10">
+      <c r="F182" s="5">
         <v>539.54049999999995</v>
       </c>
-      <c r="G182" s="9">
+      <c r="G182" s="4">
         <v>1.1618221399999999</v>
       </c>
-      <c r="H182" s="10">
+      <c r="H182" s="5">
         <v>586.69579999999996</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A183" s="6"/>
       <c r="D183" s="8"/>
-      <c r="E183" s="11">
+      <c r="E183" s="7">
         <v>1.0830129500000001</v>
       </c>
-      <c r="F183" s="12">
+      <c r="F183" s="8">
         <v>542.58920000000001</v>
       </c>
-      <c r="G183" s="11">
+      <c r="G183" s="7">
         <v>1.07277311</v>
       </c>
-      <c r="H183" s="12">
+      <c r="H183" s="8">
         <v>589.77430000000004</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A184" s="3"/>
       <c r="D184" s="5"/>
-      <c r="E184" s="9">
+      <c r="E184" s="4">
         <v>1.13112119</v>
       </c>
-      <c r="F184" s="10">
+      <c r="F184" s="5">
         <v>545.64829999999995</v>
       </c>
-      <c r="G184" s="9">
+      <c r="G184" s="4">
         <v>1.1455727600000001</v>
       </c>
-      <c r="H184" s="10">
+      <c r="H184" s="5">
         <v>592.80129999999997</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A185" s="6"/>
       <c r="D185" s="8"/>
-      <c r="E185" s="11">
+      <c r="E185" s="7">
         <v>1.06733737</v>
       </c>
-      <c r="F185" s="12">
+      <c r="F185" s="8">
         <v>548.71360000000004</v>
       </c>
-      <c r="G185" s="11">
+      <c r="G185" s="7">
         <v>1.05876115</v>
       </c>
-      <c r="H185" s="12">
+      <c r="H185" s="8">
         <v>595.87009999999998</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A186" s="3"/>
       <c r="D186" s="5"/>
-      <c r="E186" s="9">
+      <c r="E186" s="4">
         <v>1.11395004</v>
       </c>
-      <c r="F186" s="10">
+      <c r="F186" s="5">
         <v>551.7337</v>
       </c>
-      <c r="G186" s="9">
+      <c r="G186" s="4">
         <v>1.1293567200000001</v>
       </c>
-      <c r="H186" s="10">
+      <c r="H186" s="5">
         <v>598.98910000000001</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A187" s="6"/>
       <c r="D187" s="8"/>
-      <c r="E187" s="11">
+      <c r="E187" s="7">
         <v>1.0531584199999999</v>
       </c>
-      <c r="F187" s="12">
+      <c r="F187" s="8">
         <v>555.06669999999997</v>
       </c>
-      <c r="G187" s="11">
+      <c r="G187" s="7">
         <v>1.0419591399999999</v>
       </c>
-      <c r="H187" s="12">
+      <c r="H187" s="8">
         <v>602.09199999999998</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A188" s="3"/>
       <c r="D188" s="5"/>
-      <c r="E188" s="9">
+      <c r="E188" s="4">
         <v>1.0992371999999999</v>
       </c>
-      <c r="F188" s="10">
+      <c r="F188" s="5">
         <v>558.15160000000003</v>
       </c>
-      <c r="G188" s="9">
+      <c r="G188" s="4">
         <v>1.1125106300000001</v>
       </c>
-      <c r="H188" s="10">
+      <c r="H188" s="5">
         <v>605.18259999999998</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A189" s="6"/>
       <c r="D189" s="8"/>
-      <c r="E189" s="11">
+      <c r="E189" s="7">
         <v>1.0354689800000001</v>
       </c>
-      <c r="F189" s="12">
+      <c r="F189" s="8">
         <v>561.17430000000002</v>
       </c>
-      <c r="G189" s="11">
+      <c r="G189" s="7">
         <v>1.0258364</v>
       </c>
-      <c r="H189" s="12">
+      <c r="H189" s="8">
         <v>608.31150000000002</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A190" s="3"/>
       <c r="D190" s="5"/>
-      <c r="E190" s="9">
+      <c r="E190" s="4">
         <v>1.08434355</v>
       </c>
-      <c r="F190" s="10">
+      <c r="F190" s="5">
         <v>564.29830000000004</v>
       </c>
-      <c r="G190" s="9">
+      <c r="G190" s="4">
         <v>1.098875</v>
       </c>
-      <c r="H190" s="10">
+      <c r="H190" s="5">
         <v>611.51940000000002</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A191" s="6"/>
       <c r="D191" s="8"/>
-      <c r="E191" s="11">
+      <c r="E191" s="7">
         <v>1.0214122999999999</v>
       </c>
-      <c r="F191" s="12">
+      <c r="F191" s="8">
         <v>567.5163</v>
       </c>
-      <c r="G191" s="11">
+      <c r="G191" s="7">
         <v>1.00872899</v>
       </c>
-      <c r="H191" s="12">
+      <c r="H191" s="8">
         <v>614.58690000000001</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A192" s="3"/>
       <c r="D192" s="5"/>
-      <c r="E192" s="9">
+      <c r="E192" s="4">
         <v>1.0701133700000001</v>
       </c>
-      <c r="F192" s="10">
+      <c r="F192" s="5">
         <v>570.96420000000001</v>
       </c>
-      <c r="G192" s="9">
+      <c r="G192" s="4">
         <v>1.0834055899999999</v>
       </c>
-      <c r="H192" s="10">
+      <c r="H192" s="5">
         <v>617.87130000000002</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A193" s="6"/>
       <c r="D193" s="8"/>
-      <c r="E193" s="11">
+      <c r="E193" s="7">
         <v>1.0044226599999999</v>
       </c>
-      <c r="F193" s="12">
+      <c r="F193" s="8">
         <v>574.08619999999996</v>
       </c>
-      <c r="G193" s="11">
+      <c r="G193" s="7">
         <v>0.99514013000000001</v>
       </c>
-      <c r="H193" s="12">
+      <c r="H193" s="8">
         <v>621.09749999999997</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A194" s="3"/>
       <c r="D194" s="5"/>
-      <c r="E194" s="9">
+      <c r="E194" s="4">
         <v>1.0552981100000001</v>
       </c>
-      <c r="F194" s="10">
+      <c r="F194" s="5">
         <v>577.2355</v>
       </c>
-      <c r="G194" s="9">
+      <c r="G194" s="4">
         <v>1.0675259399999999</v>
       </c>
-      <c r="H194" s="10">
+      <c r="H194" s="5">
         <v>624.36509999999998</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A195" s="6"/>
       <c r="D195" s="8"/>
-      <c r="E195" s="11">
+      <c r="E195" s="7">
         <v>0.99140349000000005</v>
       </c>
-      <c r="F195" s="12">
+      <c r="F195" s="8">
         <v>580.3886</v>
       </c>
-      <c r="G195" s="11">
+      <c r="G195" s="7">
         <v>0.98079141000000003</v>
       </c>
-      <c r="H195" s="12">
+      <c r="H195" s="8">
         <v>627.46479999999997</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A196" s="3"/>
       <c r="D196" s="5"/>
-      <c r="E196" s="9">
+      <c r="E196" s="4">
         <v>1.0415471599999999</v>
       </c>
-      <c r="F196" s="10">
+      <c r="F196" s="5">
         <v>583.62149999999997</v>
       </c>
-      <c r="G196" s="9">
+      <c r="G196" s="4">
         <v>1.05236011</v>
       </c>
-      <c r="H196" s="10">
+      <c r="H196" s="5">
         <v>630.65020000000004</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A197" s="6"/>
       <c r="D197" s="8"/>
-      <c r="E197" s="11">
+      <c r="E197" s="7">
         <v>0.97646341999999997</v>
       </c>
-      <c r="F197" s="12">
+      <c r="F197" s="8">
         <v>586.93780000000004</v>
       </c>
-      <c r="G197" s="11">
+      <c r="G197" s="7">
         <v>0.96955203000000001</v>
       </c>
-      <c r="H197" s="12">
+      <c r="H197" s="8">
         <v>633.68129999999996</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A198" s="3"/>
       <c r="D198" s="5"/>
-      <c r="E198" s="9">
+      <c r="E198" s="4">
         <v>1.0265649400000001</v>
       </c>
-      <c r="F198" s="10">
+      <c r="F198" s="5">
         <v>590.15700000000004</v>
       </c>
-      <c r="G198" s="9">
+      <c r="G198" s="4">
         <v>1.03807619</v>
       </c>
-      <c r="H198" s="10">
+      <c r="H198" s="5">
         <v>636.91120000000001</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A199" s="6"/>
       <c r="D199" s="8"/>
-      <c r="E199" s="11">
+      <c r="E199" s="7">
         <v>0.96303676000000005</v>
       </c>
-      <c r="F199" s="12">
+      <c r="F199" s="8">
         <v>593.06820000000005</v>
       </c>
-      <c r="G199" s="11">
+      <c r="G199" s="7">
         <v>0.95707469999999994</v>
       </c>
-      <c r="H199" s="12">
+      <c r="H199" s="8">
         <v>640.01869999999997</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A200" s="3"/>
       <c r="D200" s="5"/>
-      <c r="E200" s="9">
+      <c r="E200" s="4">
         <v>1.0129391400000001</v>
       </c>
-      <c r="F200" s="10">
+      <c r="F200" s="5">
         <v>596.00559999999996</v>
       </c>
-      <c r="G200" s="9">
+      <c r="G200" s="4">
         <v>1.0243490900000001</v>
       </c>
-      <c r="H200" s="10">
+      <c r="H200" s="5">
         <v>643.38120000000004</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A201" s="6"/>
       <c r="D201" s="8"/>
-      <c r="E201" s="11">
+      <c r="E201" s="7">
         <v>0.94798883</v>
       </c>
-      <c r="F201" s="12">
+      <c r="F201" s="8">
         <v>599.11590000000001</v>
       </c>
-      <c r="G201" s="11">
+      <c r="G201" s="7">
         <v>0.94051974000000005</v>
       </c>
-      <c r="H201" s="12">
+      <c r="H201" s="8">
         <v>646.5231</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A202" s="3"/>
       <c r="D202" s="4"/>
-      <c r="E202" s="9">
+      <c r="E202" s="4">
         <v>0.99922633000000005</v>
       </c>
-      <c r="F202" s="10">
+      <c r="F202" s="5">
         <v>602.245</v>
       </c>
-      <c r="G202" s="9">
+      <c r="G202" s="4">
         <v>1.0102440100000001</v>
       </c>
-      <c r="H202" s="10">
+      <c r="H202" s="5">
         <v>649.66600000000005</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="E203" s="11">
+      <c r="E203" s="7">
         <v>0.93461656999999998</v>
       </c>
-      <c r="F203" s="12">
+      <c r="F203" s="8">
         <v>605.22640000000001</v>
       </c>
-      <c r="G203" s="11">
+      <c r="G203" s="7">
         <v>0.92952849000000004</v>
       </c>
-      <c r="H203" s="12">
+      <c r="H203" s="8">
         <v>652.87279999999998</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="E204" s="9">
+      <c r="E204" s="4">
         <v>0.98556233999999998</v>
       </c>
-      <c r="F204" s="10">
+      <c r="F204" s="5">
         <v>608.428</v>
       </c>
-      <c r="G204" s="9">
+      <c r="G204" s="4">
         <v>0.99727935999999995</v>
       </c>
-      <c r="H204" s="10">
+      <c r="H204" s="5">
         <v>656.06280000000004</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="E205" s="11">
+      <c r="E205" s="7">
         <v>0.92113862000000002</v>
       </c>
-      <c r="F205" s="12">
+      <c r="F205" s="8">
         <v>611.51139999999998</v>
       </c>
-      <c r="G205" s="11">
+      <c r="G205" s="7">
         <v>0.91558163000000004</v>
       </c>
-      <c r="H205" s="12">
+      <c r="H205" s="8">
         <v>659.30790000000002</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="E206" s="9">
+      <c r="E206" s="4">
         <v>0.97237119999999999</v>
       </c>
-      <c r="F206" s="10">
+      <c r="F206" s="5">
         <v>614.76559999999995</v>
       </c>
-      <c r="G206" s="9">
+      <c r="G206" s="4">
         <v>0.98496260000000002</v>
       </c>
-      <c r="H206" s="10">
+      <c r="H206" s="5">
         <v>662.74789999999996</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="E207" s="11">
+      <c r="E207" s="7">
         <v>0.90657862</v>
       </c>
-      <c r="F207" s="12">
+      <c r="F207" s="8">
         <v>618.21759999999995</v>
       </c>
-      <c r="G207" s="11">
+      <c r="G207" s="7">
         <v>0.90084078999999995</v>
       </c>
-      <c r="H207" s="12">
+      <c r="H207" s="8">
         <v>666.23789999999997</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="E208" s="9">
+      <c r="E208" s="4">
         <v>0.96105622999999996</v>
       </c>
-      <c r="F208" s="10">
+      <c r="F208" s="5">
         <v>621.50930000000005</v>
       </c>
-      <c r="G208" s="9">
+      <c r="G208" s="4">
         <v>0.97133444999999996</v>
       </c>
-      <c r="H208" s="10">
+      <c r="H208" s="5">
         <v>669.33090000000004</v>
       </c>
     </row>
     <row r="209" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E209" s="11">
+      <c r="E209" s="7">
         <v>0.89614081999999995</v>
       </c>
-      <c r="F209" s="12">
+      <c r="F209" s="8">
         <v>624.77099999999996</v>
       </c>
-      <c r="G209" s="11">
+      <c r="G209" s="7">
         <v>0.88745859999999999</v>
       </c>
-      <c r="H209" s="12">
+      <c r="H209" s="8">
         <v>672.41020000000003</v>
       </c>
     </row>
     <row r="210" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E210" s="9">
+      <c r="E210" s="4">
         <v>0.94769601999999997</v>
       </c>
-      <c r="F210" s="10">
+      <c r="F210" s="5">
         <v>627.92520000000002</v>
       </c>
-      <c r="G210" s="9">
+      <c r="G210" s="4">
         <v>0.95737718000000005</v>
       </c>
-      <c r="H210" s="10">
+      <c r="H210" s="5">
         <v>675.63229999999999</v>
       </c>
     </row>
     <row r="211" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E211" s="11">
+      <c r="E211" s="7">
         <v>0.88197243000000003</v>
       </c>
-      <c r="F211" s="12">
+      <c r="F211" s="8">
         <v>631.17930000000001</v>
       </c>
-      <c r="G211" s="11">
+      <c r="G211" s="7">
         <v>0.87303947000000004</v>
       </c>
-      <c r="H211" s="12">
+      <c r="H211" s="8">
         <v>678.72879999999998</v>
       </c>
     </row>
     <row r="212" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E212" s="9">
+      <c r="E212" s="4">
         <v>0.93491687999999995</v>
       </c>
-      <c r="F212" s="10">
+      <c r="F212" s="5">
         <v>634.41899999999998</v>
       </c>
-      <c r="G212" s="9">
+      <c r="G212" s="4">
         <v>0.94417644000000001</v>
       </c>
-      <c r="H212" s="10">
+      <c r="H212" s="5">
         <v>681.86599999999999</v>
       </c>
     </row>
     <row r="213" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E213" s="11">
+      <c r="E213" s="7">
         <v>0.87045755000000002</v>
       </c>
-      <c r="F213" s="12">
+      <c r="F213" s="8">
         <v>637.69489999999996</v>
       </c>
-      <c r="G213" s="11">
+      <c r="G213" s="7">
         <v>0.86140227000000003</v>
       </c>
-      <c r="H213" s="12">
+      <c r="H213" s="8">
         <v>685.01890000000003</v>
       </c>
     </row>
     <row r="214" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E214" s="9">
+      <c r="E214" s="4">
         <v>0.92204520999999995</v>
       </c>
-      <c r="F214" s="10">
+      <c r="F214" s="5">
         <v>641.05930000000001</v>
       </c>
-      <c r="G214" s="9">
+      <c r="G214" s="4">
         <v>0.93185912999999998</v>
       </c>
-      <c r="H214" s="10">
+      <c r="H214" s="5">
         <v>688.16399999999999</v>
       </c>
     </row>
     <row r="215" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E215" s="11">
+      <c r="E215" s="7">
         <v>0.85875621000000002</v>
       </c>
-      <c r="F215" s="12">
+      <c r="F215" s="8">
         <v>644.3057</v>
       </c>
-      <c r="G215" s="11">
+      <c r="G215" s="7">
         <v>0.84865124999999997</v>
       </c>
-      <c r="H215" s="12">
+      <c r="H215" s="8">
         <v>691.3537</v>
       </c>
     </row>
     <row r="216" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E216" s="9">
+      <c r="E216" s="4">
         <v>0.91059950999999995</v>
       </c>
-      <c r="F216" s="10">
+      <c r="F216" s="5">
         <v>647.34709999999995</v>
       </c>
-      <c r="G216" s="9">
+      <c r="G216" s="4">
         <v>0.91710977000000005</v>
       </c>
-      <c r="H216" s="10">
+      <c r="H216" s="5">
         <v>694.44709999999998</v>
       </c>
     </row>
     <row r="217" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E217" s="11">
+      <c r="E217" s="7">
         <v>0.84429571999999997</v>
       </c>
-      <c r="F217" s="12">
+      <c r="F217" s="8">
         <v>650.76099999999997</v>
       </c>
-      <c r="G217" s="11">
+      <c r="G217" s="7">
         <v>0.84159538</v>
       </c>
-      <c r="H217" s="12">
+      <c r="H217" s="8">
         <v>697.55939999999998</v>
       </c>
     </row>
     <row r="218" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E218" s="9">
+      <c r="E218" s="4">
         <v>0.89701770000000003</v>
       </c>
-      <c r="F218" s="10">
+      <c r="F218" s="5">
         <v>653.82090000000005</v>
       </c>
-      <c r="G218" s="9">
+      <c r="G218" s="4">
         <v>0.90608140999999998</v>
       </c>
-      <c r="H218" s="10">
+      <c r="H218" s="5">
         <v>700.72490000000005</v>
       </c>
     </row>
     <row r="219" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E219" s="11">
+      <c r="E219" s="7">
         <v>0.82812536999999997</v>
       </c>
-      <c r="F219" s="12">
+      <c r="F219" s="8">
         <v>657.02380000000005</v>
       </c>
-      <c r="G219" s="11">
+      <c r="G219" s="7">
         <v>0.82329554000000005</v>
       </c>
-      <c r="H219" s="12">
+      <c r="H219" s="8">
         <v>703.96799999999996</v>
       </c>
     </row>
     <row r="220" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E220" s="9">
+      <c r="E220" s="4">
         <v>0.88550673999999996</v>
       </c>
-      <c r="F220" s="10">
+      <c r="F220" s="5">
         <v>660.09969999999998</v>
       </c>
-      <c r="G220" s="9">
+      <c r="G220" s="4">
         <v>0.89253978</v>
       </c>
-      <c r="H220" s="10">
+      <c r="H220" s="5">
         <v>707.21939999999995</v>
       </c>
     </row>
     <row r="221" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E221" s="11">
+      <c r="E221" s="7">
         <v>0.81688402000000004</v>
       </c>
-      <c r="F221" s="12">
+      <c r="F221" s="8">
         <v>663.30520000000001</v>
       </c>
-      <c r="G221" s="11">
+      <c r="G221" s="7">
         <v>0.80659413999999996</v>
       </c>
-      <c r="H221" s="12">
+      <c r="H221" s="8">
         <v>710.36559999999997</v>
       </c>
     </row>
     <row r="222" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E222" s="9">
+      <c r="E222" s="4">
         <v>0.87257755999999997</v>
       </c>
-      <c r="F222" s="10">
+      <c r="F222" s="5">
         <v>666.45460000000003</v>
       </c>
-      <c r="G222" s="9">
+      <c r="G222" s="4">
         <v>0.87784156000000002</v>
       </c>
-      <c r="H222" s="10">
+      <c r="H222" s="5">
         <v>713.67629999999997</v>
       </c>
     </row>
     <row r="223" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E223" s="11">
+      <c r="E223" s="7">
         <v>0.80707337000000001</v>
       </c>
-      <c r="F223" s="12">
+      <c r="F223" s="8">
         <v>669.69410000000005</v>
       </c>
-      <c r="G223" s="11">
+      <c r="G223" s="7">
         <v>0.80054022000000002</v>
       </c>
-      <c r="H223" s="12">
+      <c r="H223" s="8">
         <v>716.9819</v>
       </c>
     </row>
     <row r="224" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E224" s="9">
+      <c r="E224" s="4">
         <v>0.86069644000000001</v>
       </c>
-      <c r="F224" s="10">
+      <c r="F224" s="5">
         <v>672.88189999999997</v>
       </c>
-      <c r="G224" s="9">
+      <c r="G224" s="4">
         <v>0.86672128000000004</v>
       </c>
-      <c r="H224" s="10">
+      <c r="H224" s="5">
         <v>720.20719999999994</v>
       </c>
     </row>
     <row r="225" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E225" s="11">
+      <c r="E225" s="7">
         <v>0.79467142000000002</v>
       </c>
-      <c r="F225" s="12">
+      <c r="F225" s="8">
         <v>676.14490000000001</v>
       </c>
-      <c r="G225" s="11">
+      <c r="G225" s="7">
         <v>0.78303195000000003</v>
       </c>
-      <c r="H225" s="12">
+      <c r="H225" s="8">
         <v>723.40899999999999</v>
       </c>
     </row>
     <row r="226" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E226" s="9">
+      <c r="E226" s="4">
         <v>0.84791030000000001</v>
       </c>
-      <c r="F226" s="10">
+      <c r="F226" s="5">
         <v>679.18060000000003</v>
       </c>
-      <c r="G226" s="9">
+      <c r="G226" s="4">
         <v>0.84775644999999999</v>
       </c>
-      <c r="H226" s="10">
+      <c r="H226" s="5">
         <v>726.5761</v>
       </c>
     </row>
     <row r="227" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E227" s="11">
+      <c r="E227" s="7">
         <v>0.77812738000000004</v>
       </c>
-      <c r="F227" s="12">
+      <c r="F227" s="8">
         <v>682.48490000000004</v>
       </c>
-      <c r="G227" s="11">
+      <c r="G227" s="7">
         <v>0.76281747</v>
       </c>
-      <c r="H227" s="12">
+      <c r="H227" s="8">
         <v>729.79930000000002</v>
       </c>
     </row>
     <row r="228" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E228" s="9">
+      <c r="E228" s="4">
         <v>0.83052925</v>
       </c>
-      <c r="F228" s="10">
+      <c r="F228" s="5">
         <v>685.56820000000005</v>
       </c>
-      <c r="G228" s="9">
+      <c r="G228" s="4">
         <v>0.82867714000000003</v>
       </c>
-      <c r="H228" s="10">
+      <c r="H228" s="5">
         <v>733.05550000000005</v>
       </c>
     </row>
     <row r="229" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E229" s="11">
+      <c r="E229" s="7">
         <v>0.75607502000000004</v>
       </c>
-      <c r="F229" s="12">
+      <c r="F229" s="8">
         <v>688.49639999999999</v>
       </c>
-      <c r="G229" s="11">
+      <c r="G229" s="7">
         <v>0.74014544999999998</v>
       </c>
-      <c r="H229" s="12">
+      <c r="H229" s="8">
         <v>736.22649999999999</v>
       </c>
     </row>
     <row r="230" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E230" s="9">
+      <c r="E230" s="4">
         <v>0.80676844000000003</v>
       </c>
-      <c r="F230" s="10">
+      <c r="F230" s="5">
         <v>691.47090000000003</v>
       </c>
-      <c r="G230" s="9">
+      <c r="G230" s="4">
         <v>0.79760434999999996</v>
       </c>
-      <c r="H230" s="10">
+      <c r="H230" s="5">
         <v>739.57870000000003</v>
       </c>
     </row>
     <row r="231" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E231" s="11">
+      <c r="E231" s="7">
         <v>0.71303121000000003</v>
       </c>
-      <c r="F231" s="12">
+      <c r="F231" s="8">
         <v>694.53570000000002</v>
       </c>
-      <c r="G231" s="11">
+      <c r="G231" s="7">
         <v>0.69466355000000002</v>
       </c>
-      <c r="H231" s="12">
+      <c r="H231" s="8">
         <v>742.94309999999996</v>
       </c>
     </row>
     <row r="232" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E232" s="9">
+      <c r="E232" s="4">
         <v>0.74310522000000001</v>
       </c>
-      <c r="F232" s="10">
+      <c r="F232" s="5">
         <v>697.65899999999999</v>
       </c>
-      <c r="G232" s="9">
+      <c r="G232" s="4">
         <v>0.72526520999999999</v>
       </c>
-      <c r="H232" s="10">
+      <c r="H232" s="5">
         <v>746.2817</v>
       </c>
     </row>
     <row r="233" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E233" s="11">
+      <c r="E233" s="7">
         <v>0.59625691000000003</v>
       </c>
-      <c r="F233" s="12">
+      <c r="F233" s="8">
         <v>701.0027</v>
       </c>
-      <c r="G233" s="11">
+      <c r="G233" s="7">
         <v>0.56066958</v>
       </c>
-      <c r="H233" s="12">
+      <c r="H233" s="8">
         <v>749.45780000000002</v>
       </c>
     </row>
     <row r="234" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E234" s="9">
+      <c r="E234" s="4">
         <v>0.54490245999999998</v>
       </c>
-      <c r="F234" s="10">
+      <c r="F234" s="5">
         <v>704.35090000000002</v>
       </c>
-      <c r="G234" s="9">
+      <c r="G234" s="4">
         <v>0.50982782999999998</v>
       </c>
-      <c r="H234" s="10">
+      <c r="H234" s="5">
         <v>752.71600000000001</v>
       </c>
     </row>
     <row r="235" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E235" s="11">
+      <c r="E235" s="7">
         <v>0.31229017999999997</v>
       </c>
-      <c r="F235" s="12">
+      <c r="F235" s="8">
         <v>707.54780000000005</v>
       </c>
-      <c r="G235" s="11">
+      <c r="G235" s="7">
         <v>0.28107177999999999</v>
       </c>
-      <c r="H235" s="12">
+      <c r="H235" s="8">
         <v>756.18269999999995</v>
       </c>
     </row>
     <row r="236" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E236" s="9">
+      <c r="E236" s="4">
         <v>0.28563330999999997</v>
       </c>
-      <c r="F236" s="10">
+      <c r="F236" s="5">
         <v>710.72199999999998</v>
       </c>
-      <c r="G236" s="9">
+      <c r="G236" s="4">
         <v>0.25183693000000001</v>
       </c>
-      <c r="H236" s="10">
+      <c r="H236" s="5">
         <v>759.68510000000003</v>
       </c>
     </row>
     <row r="237" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E237" s="11">
+      <c r="E237" s="7">
         <v>0.12014167000000001</v>
       </c>
-      <c r="F237" s="12">
+      <c r="F237" s="8">
         <v>714.27390000000003</v>
       </c>
-      <c r="G237" s="11">
+      <c r="G237" s="7">
         <v>0.10301841</v>
       </c>
-      <c r="H237" s="12">
+      <c r="H237" s="8">
         <v>763.02440000000001</v>
       </c>
     </row>
     <row r="238" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E238" s="9">
+      <c r="E238" s="4">
         <v>7.7361840000000001E-2</v>
       </c>
-      <c r="F238" s="10">
+      <c r="F238" s="5">
         <v>717.44650000000001</v>
       </c>
-      <c r="G238" s="9">
+      <c r="G238" s="4">
         <v>5.3643820000000002E-2</v>
       </c>
-      <c r="H238" s="10">
+      <c r="H238" s="5">
         <v>766.40899999999999</v>
       </c>
     </row>
     <row r="239" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E239" s="11">
+      <c r="E239" s="7">
         <v>1.151465E-2</v>
       </c>
-      <c r="F239" s="12">
+      <c r="F239" s="8">
         <v>720.66409999999996</v>
       </c>
-      <c r="G239" s="11">
+      <c r="G239" s="7">
         <v>8.6719499999999995E-3</v>
       </c>
-      <c r="H239" s="12">
+      <c r="H239" s="8">
         <v>770.01909999999998</v>
       </c>
     </row>
     <row r="240" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E240" s="9">
+      <c r="E240" s="4">
         <v>4.0141200000000004E-3</v>
       </c>
-      <c r="F240" s="10">
+      <c r="F240" s="5">
         <v>723.90769999999998</v>
       </c>
-      <c r="G240" s="9">
+      <c r="G240" s="4">
         <v>3.4135300000000001E-3</v>
       </c>
-      <c r="H240" s="10">
+      <c r="H240" s="5">
         <v>773.81039999999996</v>
       </c>
     </row>
     <row r="241" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E241" s="11">
+      <c r="E241" s="7">
         <v>1.5274900000000001E-3</v>
       </c>
-      <c r="F241" s="12">
+      <c r="F241" s="8">
         <v>727.26049999999998</v>
       </c>
-      <c r="G241" s="11">
+      <c r="G241" s="7">
         <v>1.60753E-3</v>
       </c>
-      <c r="H241" s="12">
+      <c r="H241" s="8">
         <v>777.61369999999999</v>
       </c>
     </row>
     <row r="242" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E242" s="9">
+      <c r="E242" s="4">
         <v>6.2901000000000005E-4</v>
       </c>
-      <c r="F242" s="10">
+      <c r="F242" s="5">
         <v>730.41629999999998</v>
       </c>
-      <c r="G242" s="9">
+      <c r="G242" s="4">
         <v>1.8126500000000001E-3</v>
       </c>
-      <c r="H242" s="10">
+      <c r="H242" s="5">
         <v>781.1223</v>
       </c>
     </row>
     <row r="243" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E243" s="11">
+      <c r="E243" s="7">
         <v>5.0191000000000005E-4</v>
       </c>
-      <c r="F243" s="12">
+      <c r="F243" s="8">
         <v>733.50840000000005</v>
       </c>
-      <c r="G243" s="11">
+      <c r="G243" s="7">
         <v>1.48065E-3</v>
       </c>
-      <c r="H243" s="12">
+      <c r="H243" s="8">
         <v>784.9402</v>
       </c>
     </row>
     <row r="244" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E244" s="9">
+      <c r="E244" s="4">
         <v>3.6534000000000002E-4</v>
       </c>
-      <c r="F244" s="10">
+      <c r="F244" s="5">
         <v>736.80579999999998</v>
       </c>
-      <c r="G244" s="9">
+      <c r="G244" s="4">
         <v>1.4350599999999999E-3</v>
       </c>
-      <c r="H244" s="10">
+      <c r="H244" s="5">
         <v>788.57039999999995</v>
       </c>
     </row>
     <row r="245" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E245" s="11">
+      <c r="E245" s="7">
         <v>3.5856000000000001E-4</v>
       </c>
-      <c r="F245" s="12">
+      <c r="F245" s="8">
         <v>740.00419999999997</v>
       </c>
-      <c r="G245" s="11">
+      <c r="G245" s="7">
         <v>1.4950199999999999E-3</v>
       </c>
-      <c r="H245" s="12">
+      <c r="H245" s="8">
         <v>792.44420000000002</v>
       </c>
     </row>
     <row r="246" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="G246" s="9">
+      <c r="G246" s="4">
         <v>2.1463599999999999E-3</v>
       </c>
-      <c r="H246" s="10">
+      <c r="H246" s="5">
         <v>796.1019</v>
       </c>
     </row>
     <row r="247" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="G247" s="11">
+      <c r="G247" s="7">
         <v>1.6977800000000001E-3</v>
       </c>
-      <c r="H247" s="12">
+      <c r="H247" s="8">
         <v>799.71199999999999</v>
       </c>
     </row>
     <row r="248" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="G248" s="9">
+      <c r="G248" s="4">
         <v>8.0451999999999997E-4</v>
       </c>
-      <c r="H248" s="10">
+      <c r="H248" s="5">
         <v>803.37630000000001</v>
       </c>
     </row>
     <row r="249" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="G249" s="11">
+      <c r="G249" s="7">
         <v>9.2988000000000001E-4</v>
       </c>
-      <c r="H249" s="12">
+      <c r="H249" s="8">
         <v>806.86300000000006</v>
       </c>
     </row>
     <row r="250" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="G250" s="9">
+      <c r="G250" s="4">
         <v>1.1167499999999999E-3</v>
       </c>
-      <c r="H250" s="10">
+      <c r="H250" s="5">
         <v>810.25990000000002</v>
       </c>
     </row>
     <row r="251" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="G251" s="11">
+      <c r="G251" s="7">
         <v>2.2350099999999999E-3</v>
       </c>
-      <c r="H251" s="12">
+      <c r="H251" s="8">
         <v>813.67449999999997</v>
       </c>
     </row>
     <row r="252" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="G252" s="9">
+      <c r="G252" s="4">
         <v>1.1941300000000001E-3</v>
       </c>
-      <c r="H252" s="10">
+      <c r="H252" s="5">
         <v>817.2038</v>
       </c>
     </row>
     <row r="253" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="G253" s="11">
+      <c r="G253" s="7">
         <v>1.0443799999999999E-3</v>
       </c>
-      <c r="H253" s="12">
+      <c r="H253" s="8">
         <v>820.55100000000004</v>
       </c>
     </row>
     <row r="254" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="G254" s="9">
+      <c r="G254" s="4">
         <v>7.3008000000000003E-4</v>
       </c>
-      <c r="H254" s="10">
+      <c r="H254" s="5">
         <v>823.97360000000003</v>
       </c>
     </row>
     <row r="255" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="G255" s="11">
+      <c r="G255" s="7">
         <v>7.6734999999999998E-4</v>
       </c>
-      <c r="H255" s="12">
+      <c r="H255" s="8">
         <v>827.3048</v>
       </c>
     </row>
     <row r="256" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="G256" s="9">
+      <c r="G256" s="4">
         <v>6.4429000000000005E-4</v>
       </c>
-      <c r="H256" s="10">
+      <c r="H256" s="5">
         <v>830.63530000000003</v>
       </c>
     </row>
     <row r="257" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G257" s="11">
+      <c r="G257" s="7">
         <v>1.2852899999999999E-3</v>
       </c>
-      <c r="H257" s="12">
+      <c r="H257" s="8">
         <v>834.16420000000005</v>
       </c>
     </row>
     <row r="258" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G258" s="9">
+      <c r="G258" s="4">
         <v>1.2606E-4</v>
       </c>
-      <c r="H258" s="10">
+      <c r="H258" s="5">
         <v>840.2165</v>
       </c>
     </row>
     <row r="259" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G259" s="11">
+      <c r="G259" s="7">
         <v>1.8649999999999999E-5</v>
       </c>
-      <c r="H259" s="12">
+      <c r="H259" s="8">
         <v>843.63469999999995</v>
       </c>
     </row>
     <row r="260" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G260" s="9">
+      <c r="G260" s="4">
         <v>1.115E-5</v>
       </c>
-      <c r="H260" s="10">
+      <c r="H260" s="5">
         <v>847.18560000000002</v>
       </c>
     </row>
